--- a/P0008/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0008/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\S3\Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0008\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0008/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9371CE1-9A49-4B74-BB5B-5B7D1355AFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{A9371CE1-9A49-4B74-BB5B-5B7D1355AFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18FD1562-CE4F-4C05-A4D3-109ED64D93A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="229">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>Nombre del producto</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Autor 1</t>
+  </si>
+  <si>
+    <t>Autor 2</t>
+  </si>
+  <si>
+    <t>Autor 3</t>
+  </si>
   <si>
     <t>AUTOR 4</t>
   </si>
@@ -44,30 +68,6 @@
     <t>AUTOR 5</t>
   </si>
   <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Directorio</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -95,22 +95,22 @@
     <t>P0008</t>
   </si>
   <si>
-    <t>PR001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Doc. Delimitación Sistema de Humedales y Ecosistemas </t>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>5. Doc delimitacion sistema de humedales y ecosistemas</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/5. Doc delimitacion sistema de humedales y ecosistemas.pdf</t>
   </si>
   <si>
-    <t>Fondo de Adaptación</t>
+    <t>Fondo Adaptación</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>El documento corresponde a un análisis de la delimitación del sistema de humedales de la región del núcleo de once municipios pertenecientes a La Mojana.</t>
+    <t>El documento “Funcionamiento del sistema natural y características de los ecosistemas del núcleo de once municipios de la región de La Mojana” corresponde al informe del producto 5 del contrato 003, el cual presenta un análisis de la delimitación del sistema de humedales de la región del núcleo de once municipios pertenecientes a La Mojana.</t>
   </si>
   <si>
     <t>Informe</t>
@@ -125,28 +125,31 @@
     <t>No</t>
   </si>
   <si>
-    <t>Ecosistemas estratégicos, pulso de inundación, coberturas, agroecosistemas, bosques de galería, zonas inundables, lóticos, lénticos, caños, ríos, humedales, ciénagas, zápales, playones, zonas transicionales, interfaz acuática/terrestre, zonas artificiales, cartografía</t>
-  </si>
-  <si>
-    <t>PR002</t>
-  </si>
-  <si>
-    <t>6. Doc. Valoración Integral de Servicios Ecosistemicos en la Mojana</t>
+    <t>Sin observaciones</t>
+  </si>
+  <si>
+    <t>Ecosistemas estratégicos, pulso de inundación, coberturas, agroecosistemas, bosques de galería, zonas inundables, lóticos, lénticos, caños, ríos, humedales, ciénagas, zápales, playones, zonas transicionales, interfaz acuática/terrestre, zonas artificiales.</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>6. Doc Valoracion integral de servicios ecosistemicos en La Mojana</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/6. Doc Valoracion integral de servicios ecosistemicos en La Mojana.pdf</t>
   </si>
   <si>
-    <t>El presente documento aborda el análisis de los servicios ecosistémicos del sistema natural del núcleo de los onces municipios de la Región de la Mojana, siguiendo los lineamientos del documento “Valoración Integral de la Biodiversidad y los servicios ecosistémicos” por el instituto de investigación de Recursos Biológicos Alexander Von Humboldt en el 2014</t>
-  </si>
-  <si>
-    <t>El documente describe, la valoración integral de la Biodiversidad y Servicios Ecosistémicos (SE) del núcleo de los onces municipios de la Región de la Mojana.  Dicho documento se divide en dos secciones. El primer apartado aborda temas como: clasificación de servicios ecosistémicos, identificación y caracterización e identificación de los ecosistemas suministradores de los servicios ecosistémicos. La segunda sección menciona: la valoración integral de la Biodiversidad y los servicios ecosistémicos, Valoración sociocultural y monetaria de los mismos. En el sistema natural, se identificaron alrededor de 50 SE, clasificados en:  Abastecimiento (alimento, materiales y minerales, recursos relacionados con coberturas boscosas, recursos relacionados con especies vegetales silvestres, recursos relacionados con especies de fauna local, soporte físico), Cultural (didáctico, disfrute, identidad), Regulación (ciclos, prevención, refugio, reproducción, sumidero y depuración). Los ecosistemas de la interfase acuática/terrestres (Playones, Zapales) en SE de abastecimiento, suministra la mayor cantidad de servicios con un promedio total del 56%, destacándose la agricultura y ganadería, en segundo lugar ecosistemas acuáticos (humedales, ríos y corrientes) con un 58% con las activades de pesca, prácticas pecuarias y explotación, finalmente, con un 47%, los ecosistemas terrestres con agroecosistemas, áreas con cobertura natural que albergan especies de fauna y flora aprovechables por las poblaciones. En general los ecosistemas naturales brindan el 60% de SE (30) y los agroecosistemas solo 20 servicios equivalentes al 40%.  La valoración sociocultural de los SE por tipo de servicio, evidencio que los SE de regulación, mostro la más alta precepción de servicios esenciales en la sociedad con un 57.1%. Seguido de los servicios culturales con un 55.6% como esencial y un 33.3% calificado como necesario, los de abastecimiento con un 16.7% como esencial. Según la valorización cualitativa por SE de acuerdo con el ecosistema/hábitat, los ecosistemas acuáticos y de la interfaz acuática/terrestre, obtuvieron una calificación como esenciales superior al 30%, seguido de los necesarios con un 20%.  Por último, la valoración económica estableció que el núcleo de onces municipios de la región de la Mojana brinda un valor aproximado de COP $15,74 billones de pesos por año, en la prestación de SE presentes en los ecosistemas estratégicos como el sistema de humedales, los cuerpos de agua, bosques tropicales y pastizales sabanas/naturales.</t>
-  </si>
-  <si>
-    <t>Servicios ecosistemicos, valorción sociocultural, valoración monetaria, ecosistemas estratégicos, ganaderia, cultivos de pancoger, agricultura, pesca, agroecosistemas</t>
-  </si>
-  <si>
-    <t>PR003</t>
+    <t>El presente documento, denominado “Valoración Integral de la Biodiversidad y los Servicios Ecosistémicos en el Núcleo de Once Municipios de la Región de La Mojana”, aborda el análisis de los servicios ecosistémicos del sistema natural de la Región de la Mojana, siguiendo los lineamientos del documento “Valoración Integral de la Biodiversidad y los servicios ecosistémicos” por el instituto de investigación de Recursos Biológicos Alexander Von Humboldt en el 2014.</t>
+  </si>
+  <si>
+    <t>El documente describe, la valoración integral de la Biodiversidad y Servicios Ecosistémicos (SE) del núcleo de los onces municipios de la Región de la Mojana.  Dicho documento se divide en dos secciones. El primer apartado aborda temas como: clasificación de servicios ecosistémicos, identificación y caracterización e identificación de los ecosistemas suministradores de los servicios ecosistémicos. La segunda sección menciona: la valoración integral de la Biodiversidad y los servicios ecosistémicos, Valoración sociocultural y monetaria de los mismos. En el sistema natural, se identificaron alrededor de 50 SE, clasificados en:  Abastecimiento (alimento, materiales y minerales, recursos relacionados con coberturas boscosas, recursos relacionados con especies vegetales silvestres, recursos relacionados con especies de fauna local, soporte físico), Cultural (didáctico, disfrute, identidad), Regulación (ciclos, prevención, refugio, reproducción, sumidero y depuración). Los ecosistemas de la interfase acuática/terrestres (Playones, Zápales) en SE de abastecimiento, suministra la mayor cantidad de servicios con un promedio total del 56%, destacándose la agricultura y ganadería, en segundo lugar ecosistemas acuáticos (humedales, ríos y corrientes) con un 58% con las activades de pesca, prácticas pecuarias y explotación, finalmente, con un 47%, los ecosistemas terrestres con agroecosistemas, áreas con cobertura natural que albergan especies de fauna y flora aprovechables por las poblaciones. En general los ecosistemas naturales brindan el 60% de SE (30) y los agroecosistemas solo 20 servicios equivalentes al 40%.  La valoración sociocultural de los SE por tipo de servicio, evidencio que los SE de regulación, mostro la más alta precepción de servicios esenciales en la sociedad con un 57.1%. Seguido de los servicios culturales con un 55.6% como esencial y un 33.3% calificado como necesario, los de abastecimiento con un 16.7% como esencial. Según la valorización cualitativa por SE de acuerdo con el ecosistema/hábitat, los ecosistemas acuáticos y de la interfaz acuática/terrestre, obtuvieron una calificación como esenciales superior al 30%, seguido de los necesarios con un 20%.  Por último, la valoración económica estableció que el núcleo de onces municipios de la región de la Mojana brinda un valor aproximado de COP $15,74 billones de pesos por año, en la prestación de SE presentes en los ecosistemas estratégicos como el sistema de humedales, los cuerpos de agua, bosques tropicales y pastizales sabanas/naturales.</t>
+  </si>
+  <si>
+    <t>Servicios ecosistémicos, valoración sociocultural, valoración monetaria, ecosistemas estratégicos, ganadería, cultivos de pan coger, agricultura, pesca, agroecosistemas.</t>
+  </si>
+  <si>
+    <t>PR0003</t>
   </si>
   <si>
     <t>7a. Doc evaluacion alternativas de intervencion criterio ambiental</t>
@@ -155,16 +158,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/7a. Doc evaluacion alternativas de intervencion criterio ambiental.pdf</t>
   </si>
   <si>
-    <t>el documento corresponde a la evaluación ambiental de alternativas de intervención para la mitigación del riesgo de inundación en el núcleo de once municipios en la región de La Mojana en el marco de la formulación del plan de acción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento se presenta como sustento del desarrollo del producto 7 del contrato 003 de 2014, otrosí N°2. pretende  evaluar alternativas de intervención  planteadas por el comité del plan de acción de la intervención del riesgo de inundación en el núcleo de once municipios de la región de La Mojana desde el punto de vista ambiental. el documento describe los antecedentes del funcionamiento hídrico, biodiversidad y servicios ecosistemicos de la región, luego realiza el proceso de formulación de las altenativas de intervencipon planteadas, describe los criterios ambientales para la formulación de las alternativas de intervención  y explica todas las alternativas de intervención propuestas.   Se definen los criterios ambientales para la evaluación de las alternativas propuestas y finalmente se expone la evaluación ambiental cualitativa de las alternativas y la evaluacipn mediante el proceso de análisis jerarquico. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación ambiental,Servicios ecositémicos, Criterios ambientales, Brazo de Loba, río Cauca, Las Brisas, Biodiversidad, Amenaza, Inundación, Cambio climático. </t>
-  </si>
-  <si>
-    <t>PR004</t>
+    <t>El documento producto del contrato 003, corresponde a la evaluación ambiental de alternativas de intervención para la mitigación del riesgo de inundación en el núcleo de once municipios en la región de La Mojana en el marco de la formulación del plan de acción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento pretende evaluar alternativas de intervención planteadas por el comité del plan de acción de la intervención del riesgo de inundación en el núcleo de once municipios de la región de La Mojana desde el punto de vista ambiental. Además, describe los antecedentes del funcionamiento hídrico, biodiversidad y servicios ecosistémicos de la región. Posterior a esto, realiza el proceso de formulación de las alternativas de intervención planteadas, describe los criterios ambientales para la formulación de las alternativas de intervención y explica todas las alternativas de intervención propuestas. También, se definen los criterios ambientales para la evaluación de las alternativas propuestas y finalmente se expone la evaluación ambiental cualitativa de las alternativas y la evaluación mediante el proceso de análisis jerárquico. </t>
+  </si>
+  <si>
+    <t>Evaluación ambiental, servicios ecosistémicos, criterios ambientales, Brazo de loba, río Cauca, Las Brisas, biodiversidad, amenaza, inundación, cambio climático.</t>
+  </si>
+  <si>
+    <t>PR0004</t>
   </si>
   <si>
     <t>7b. Doc impactos en el funcionamiento hidrico</t>
@@ -173,16 +176,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/7b. Doc impactos en el funcionamiento hidrico.pdf</t>
   </si>
   <si>
-    <t>El documento corresponde a la aproximación al funcionamiento hídrico y su relación con la biodiversidad y servicios ecosistémicos mediante el concepto del pulso de inundación en la planicie inundable del núcleo de once municipios de la región de La Mojana</t>
-  </si>
-  <si>
-    <t>El documento se presenta como sustento del desarrollo del producto 7 del contrato 003 de 2014, otrosí N°2.  El informe describe el espacio biofísico en el cual se desarrolla el pulso de inundación en el sistema de humedales asociados a la planicie inundable en la región de La Mojana, describe los distintos cuerpos de agua de la región, las fases del pulso de inundación y sus efectos en la zona litoral.  Se caracteriza el pulso de inundación y su efecto hidrodinámico en la planicie inundable  y sistemas de humedales de La Mojana asi como las implicacones y efectos ecologicos relacionados a estos eventos de inundación. Se describe la conectividad entre la planicie inundable y los ríos principales de La Mojana.  Se analizan  las alteraciones en la conectividad y los efectos de los eventos de inundación extremos, así como las alteraciones en el pulso de inundación del sistema de humedales debido a los rompederos en el río Cauca  y sus implicaciones  en la biodiversidad y servicios ecosistémicos de la región.</t>
-  </si>
-  <si>
-    <t>Inundación, Planicie de inundación, Pulso de inundación, Biodiversidad, Servicios ecosistémicos, río Cauca, San Marcos, Ayapel, Boca del Cura, Humedales, Conectividad, río San Jorge, Brazo de loba, Caño Panceguita, Litoral, Lótico, Léntico.</t>
-  </si>
-  <si>
-    <t>PR005</t>
+    <t>El documento producto del contrato 003, corresponde al producto 7 denominado “Aproximación al funcionamiento hídrico y su relación con la biodiversidad y servicios ecosistémicos mediante el concepto del pulso de inundación en la planicie inundable del núcleo de once municipios de la región de La Mojana”. El documento contiene recomendaciones para la incorporación de las variables ambientales en la formulación del plan de acción, referente al análisis de las posibles afectaciones del sistema natural caracterizadas de manera cualitativa.</t>
+  </si>
+  <si>
+    <t>El informe describe el espacio biofísico en el cual se desarrolla el pulso de inundación en el sistema de humedales asociados a la planicie inundable en la región de La Mojana, describe los distintos cuerpos de agua de la región, las fases del pulso de inundación y sus efectos en la zona litoral.  Se caracteriza el pulso de inundación y su efecto hidrodinámico en la planicie inundable y sistemas de humedales de La Mojana, así como, las implicaciones y efectos ecológicos relacionados a estos eventos de inundación. Se describe la conectividad entre la planicie inundable y los ríos principales de La Mojana. Se analizan las alteraciones en la conectividad y los efectos de los eventos de inundación extremos, así como las alteraciones en el pulso de inundación del sistema de humedales debido a los rompederos en el río Cauca  y sus implicaciones  en la biodiversidad y servicios ecosistémicos de la región.</t>
+  </si>
+  <si>
+    <t>Inundación, planicie de inundación, pulso de inundación, biodiversidad, servicios ecosistémicos, río Cauca, San Marcos, Ayapel, Boca del Cura, humedales, conectividad, río San Jorge, Brazo de loba, Caño Pancegüita, litoral, lótico, léntico.</t>
+  </si>
+  <si>
+    <t>PR0005</t>
   </si>
   <si>
     <t>4. Doc articulacion modelo de calidad del agua</t>
@@ -191,19 +194,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/4. Doc articulacion modelo de calidad del agua.pdf</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>En resumen, el documento presenta una propuesta técnica para integrar la modelación de la calidad del agua con la modelación hidrodinámica en la región de La Mojana, utilizando herramientas de simulación como SOBEK.</t>
+    <t>El documento producto del contrato 003, corresponde al producto 4 denominado “Articulación de un modelo de calidad de agua al modelo hidronímico del núcleo de once municipios de la región de La Mojana”. En resumen, el documento presenta una propuesta técnica para integrar la modelación de la calidad del agua con la modelación hidrodinámica en la región de La Mojana, utilizando herramientas de simulación como SOBEK.</t>
   </si>
   <si>
     <t>El documento describe las dinámicas de calidad del agua en la región de La Mojana, incluyendo los procesos que controlan el comportamiento de sustancias contaminantes. Además, explica las particularidades de la modelación de calidad de agua en el sistema hídrico de La Mojana, como la estratificación térmica y producción primaria. Por otro lado, discute las dimensiones espaciales y temporales de los modelos de calidad de agua, las condiciones de frontera y la segmentación de los cuerpos de agua. Por último, propone la implementación de un modelo de calidad de agua articulado con el modelo hidrodinámico utilizando el software SOBEK, para lo cual, describe las características y capacidades de este software para modelar flujos, transporte de sedimentos, calidad de agua, entre otros.</t>
   </si>
   <si>
-    <t>Modelo, Calidad del agua, Hidrodinámica, Modelación, SOBEK, Fuentes de contaminación, Materia orgánica, sólidos suspendidos, nutrientes, metales pesados, Escalas espaciales, Escalas temporales</t>
-  </si>
-  <si>
-    <t>PR006</t>
+    <t>Modelo, calidad del agua, hidrodinámica, modelación, Sobek, fuentes de contaminación, materia orgánica, sólidos suspendidos, nutrientes, metales pesados, escalas espaciales, escalas temporales.</t>
+  </si>
+  <si>
+    <t>PR0006</t>
   </si>
   <si>
     <t>INFORME_1_V0_ETR</t>
@@ -218,7 +218,7 @@
     <t>Dirección Nacional de Planeación - DNP</t>
   </si>
   <si>
-    <t>El documento contiene la estimación de la Evapotranspiración real de la región de la Mojana para un año Niño (2009) y un año Niña (2010) mediante método FAO Penman - Monteith estimada a partir de datos tantos observados como estimados por otros métodos.</t>
+    <t>El documento contiene el informe del análisis del proceso de evaporación en el contexto de la región de La Mojana. El corresponde al análisis de la estimación de la evapotranspiración real de la región de la Mojana para un año Niño (2009) y un año Niña (2010) mediante método FAO Penman - Monteith estimada a partir de datos tantos observados como estimados por otros métodos.</t>
   </si>
   <si>
     <t>Con datos observados de 4 estaciones de velocidad, 13 estaciones de temperatura (Tmax y Tmin) y estimación de los demás parámetros se estimó la evapotranspiración (mm) real de toda la región para los años 2009 y 2010 por el método FAO Penmman – Monteith. En el año 2010 osciló entre 1053 y 1502 mm frente a 1139 y 1618 mm para el año 2009; específicamente en el año 2010 los mayores valores, que comprenden el rango de 1209 a 1502 mm se registran en la zona nororiental (Brazo de Loba), en la cuenca media y en la cuenca baja del río San Jorge (zonas aledañas al cauce principal); gran parte de la zona centro de la cuenca baja del río San Jorge se encuentran en el rango de 1153 a 1208 mm, y los valores más bajos entre los 1052 a 1152 mm en la vertiente occidental de la cuenca del río San Jorge y en toda la zona sur de la Mojana.</t>
@@ -230,7 +230,7 @@
     <t>Evapotranspiración real, Penmman – Monteith.</t>
   </si>
   <si>
-    <t>PR007</t>
+    <t>PR0007</t>
   </si>
   <si>
     <t>INFORME_2_V0_ANALISIS_VARIABILIDAD</t>
@@ -239,16 +239,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROLOGIA/INFORME_2_V0_ANALISIS_VARIABILIDAD.pdf</t>
   </si>
   <si>
-    <t>El informe contiene las principales características hidrológicas de La Mojana y de corrientes que llegan a la región, su variabilidad espacial y temporal que influencian los proceso de inundación de La Mojana. Además, se describen todas las series hidrológicas recolectadas con longitudes, datos faltantes y estadísticos descriptivos. Cuanto en porcentaje participa cada afluente en La Mojana y la variabilidad entre caudales y niveles de la región.</t>
-  </si>
-  <si>
-    <t>El informe contiene las principales características hidrológicas de La Mojana y de corrientes que llegan a la región, Participación del área de la Mojana respectoa las subzonas hidrográficas es de 83% se ubica en la subzona “Bajo San Jorge - La Mojana”, el 10% en “Directos Bajo Cauca -  Cga La Raya”, un 3% sobre “Bajo Nechí”, un porcentaje igual sobre “Directos al Bajo Nechí” y un 1% sobre “Directos al Cauca (md). Allí se describen las principales afluentes, corrientes y embalses ubicados aguas arriba y corrientes aguas abajo de la región. Proporción media multianual de aportes a La Mojana promedio histórico 2010 fue 3% para río San Jorge, 20% para el río Cauca, 11% para el río Nechí, 4% para caño Caribona y 61% para el río Magdalena.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidrología, proporción aportes caudales medios mensuales multianuales, tendencias, Caudal, coeficiente variación, </t>
-  </si>
-  <si>
-    <t>PR008</t>
+    <t>El informe contiene las principales características hidrológicas de La Mojana y de corrientes que llegan a la región, su variabilidad espacial y temporal que influencian los procesos de inundación de La Mojana. Además, se describen todas las series hidrológicas recolectadas con longitudes, datos faltantes y estadísticos descriptivos. Cuanto en porcentaje participa cada afluente en La Mojana y la variabilidad entre caudales y niveles de la región.</t>
+  </si>
+  <si>
+    <t>El informe contiene las principales características hidrológicas de La Mojana y de corrientes que llegan a la región, Participación del área de la Mojana respecto a las subzonas hidrográficas es de 83% se ubica en la subzona “Bajo San Jorge - La Mojana”, el 10% en “Directos Bajo Cauca -  Cga La Raya”, un 3% sobre “Bajo Nechí”, un porcentaje igual sobre “Directos al Bajo Nechí” y un 1% sobre “Directos al Cauca (md). Allí se describen las principales afluentes, corrientes y embalses ubicados aguas arriba y corrientes aguas abajo de la región. Proporción media multianual de aportes a La Mojana promedio histórico 2010 fue 3% para río San Jorge, 20% para el río Cauca, 11% para el río Nechí, 4% para caño Caribona y 61% para el río Magdalena.</t>
+  </si>
+  <si>
+    <t>Hidrología, proporción aportes caudales medios mensuales multianuales, tendencias, Caudal, coeficiente variación,</t>
+  </si>
+  <si>
+    <t>PR0008</t>
   </si>
   <si>
     <t>INFORME_3_V0_VARIABLES_H</t>
@@ -257,10 +257,10 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROLOGIA/INFORME_3_V0_VARIABLES_H.pdf</t>
   </si>
   <si>
-    <t>Describe las estimaciones de la variable hidrológica (Caudal) que contribuye a operar el modelo hidrodinámico de la Mojana entre los años 2009 y 2010. Esta variable se convierten en condiciones de frontera del modelo hidrodinámico y se dividió en dos grupos. El primero para revisión y llenado de datos de caudales de estaciones a la entrada de La Mojana y el segundo, la estimación de caudales de cuencas que no tienen series hidrológicas o datos observados. Incluye una simulación de los caudales máximos en la serie 1984-2000 si operara la represa Hidroituango.</t>
-  </si>
-  <si>
-    <t>La estimación de caudales involucra un área superior a la delimitación politico administrativa de La Mojana porque el área aferente o aportante supera tal delimitación. Las principales entradas de flujo son registradas por estaciones hidrométricas, pero no están ubicadas justamente en los límites de La Mojana. También, se utilizan estaciones hidrométricas para las condiciones de salida. Para las corrientes o caño que generan escorrentía desde adentro de La Mojanaque fue necesario estimar series de caudales para agregarlas como condiciones de frontera al modelo hidrodinámico. Todo lo anterior para los años 2009 y 2010 con resolución horaria bajo el análisis de consistencia, análisis de datos anómalos y llenado de series. Por otro lado, para ese momento se construía Hidroituango, por lo tanto, se hizo una simulación para el periodo 1984-2000 de cómo esta obra afectaría o no la inundación de La Mojana cuando llegasen los caudales máximos (picos altos). Esto tuvo limitantes por desconocimiento de condiciones de operación, volúmenes útiles óptimos, factores ambientales y económicos de venta de la energía. Aún así, la simulación se consideró adecuada y la construcción de hidroituango no reduce o atenua considerablemente los caudales máximos.</t>
+    <t>El informe “Metodología y cálculo de los resultados de la estimación de las variables hidrológicas”, describe las estimaciones de la variable hidrológica (Caudal) que contribuye a operar el modelo hidrodinámico de la Mojana entre los años 2009 y 2010. Esta variable se convierten en condiciones de frontera del modelo hidrodinámico y se dividió en dos grupos. El primero para revisión y llenado de datos de caudales de estaciones a la entrada de La Mojana y el segundo, la estimación de caudales de cuencas que no tienen series hidrológicas o datos observados. Incluye una simulación de los caudales máximos en la serie 1984-2000 si operara la represa Hidroituango.</t>
+  </si>
+  <si>
+    <t>La estimación de caudales involucra un área superior a la delimitación político administrativa de La Mojana porque el área aferente o aportante supera tal delimitación. Las principales entradas de flujo son registradas por estaciones hidrométricas, pero no están ubicadas justamente en los límites de La Mojana. También, se utilizan estaciones hidrométricas para las condiciones de salida. Para las corrientes o caño que generan escorrentía desde adentro de La Mojana que fue necesario estimar series de caudales para agregarlas como condiciones de frontera al modelo hidrodinámico. Todo lo anterior para los años 2009 y 2010 con resolución horaria bajo el análisis de consistencia, análisis de datos anómalos y llenado de series. Por otro lado, para ese momento se construía Hidroituango, por lo tanto, se hizo una simulación para el periodo 1984-2000 de cómo esta obra afectaría o no la inundación de La Mojana cuando llegasen los caudales máximos (picos altos). Esto tuvo limitantes por desconocimiento de condiciones de operación, volúmenes útiles óptimos, factores ambientales y económicos de venta de la energía. Aun así, la simulación se consideró adecuada y la construcción de Hidroituango no reduce o atenúa considerablemente los caudales máximos.</t>
   </si>
   <si>
     <t>No contiene los archivos de cálculo o estimaciones ni las series resultantes que ingresaron a la simulación, Dentro de las limitaciones del modelo construido, no sé contó con las reglas de operación que tendrá Hidroituango.</t>
@@ -269,7 +269,7 @@
     <t>Caudales, cuencas no instrumentadas, llenado de datos, embalse, Ituango, represa, Hidroituango, caudales máximos</t>
   </si>
   <si>
-    <t>PR009</t>
+    <t>PR0009</t>
   </si>
   <si>
     <t xml:space="preserve">INFORME_4_V0_MODELAMIENTO </t>
@@ -278,16 +278,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROLOGIA/INFORME_4_V0_MODELAMIENTO.pdf</t>
   </si>
   <si>
-    <t>A partir de una delimitación de 146 cuencas con áreas aferentes dentro y fuera del límite de La Mojana se utilizó simulación hidrológica en la herramienta Sobek que incluye el método Sacramento para generar las series horarias de caudales para los años 2009 y 2010 de las 146 cuencas de tal forma que se convirtieran en entrada (condiciones de frontera) del modelo hidrodinámico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con el fin de generar las condiciones de frontera donde no se contaba con series hidrológicas monitoreadas se afectuó 146 simulaciones hidrológicas (proceso lluvia-escorrenía del método Sacramento) para obtener los caudales de las corrientes o caños aportantes a La Mojana. Para ello el modelo hidrológico requirió información de precipitación y evapotranspiración que fue localizada en cada nodo y desagregada a nivel horario para generar los caudales. Respecto a resultados, de manera ejemplarizante el informe presenta los resultados de la corriente Quebradona a nivel horario. Quebradona es aportante a la ciénaga de Ayapel. El modelo Sacramento es un modelo conceptual que considera la humedal del suelo. </t>
-  </si>
-  <si>
-    <t>Lluvia-Escorrentía, caudales, simulación hidrológica, Sobek, horaria, Quebradona, Parámetros Sobek.</t>
-  </si>
-  <si>
-    <t>PR010</t>
+    <t>El informe “Metodología y resultados correspondientes a los escenarios de intervención”, describe como a partir de una delimitación de 146 cuencas con áreas aferentes dentro y fuera del límite de La Mojana se utilizó simulación hidrológica en la herramienta Sobek que incluye el método Sacramento para generar las series horarias de caudales para los años 2009 y 2010 de las 146 cuencas de tal forma que se convirtieran en entrada (condiciones de frontera) del modelo hidrodinámico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con el fin de generar las condiciones de frontera donde no se contaba con series hidrológicas monitoreadas se efectuó 146 simulaciones hidrológicas (proceso lluvia-escorrentía del método Sacramento) para obtener los caudales de las corrientes o caños aportantes a La Mojana. Para ello el modelo hidrológico requirió información de precipitación y evapotranspiración que fue localizada en cada nodo y desagregada a nivel horario para generar los caudales. Respecto a resultados, de manera ejemplarizante el informe presenta los resultados de la corriente Quebradona a nivel horario. Quebradona es aportante a la ciénaga de Ayapel. El modelo Sacramento es un modelo conceptual que considera la humedad del suelo. </t>
+  </si>
+  <si>
+    <t>Lluvia-escorrentía, caudales, simulación hidrológica, Sobek, horaria, Quebradona, parámetros Sobek.</t>
+  </si>
+  <si>
+    <t>PR0010</t>
   </si>
   <si>
     <t>INFORME_5_V0_COB_RTA_H</t>
@@ -296,16 +296,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROLOGIA/INFORME_5_V0_COB_RTA_H.pdf</t>
   </si>
   <si>
-    <t>A nivel de seis unidades espaciales se realizó el cálculo de las áreas de Bosque-No Bosque para los años 1990, 2000, 2005 y 2010 para conocer la evolución histórica del cambio en la coberturas demostrándose relación en zonas de deforestación, incrementos de caudales pero relación directa con la cambios en la precipitación.</t>
+    <t>El informe del análisis de la evaluación multitemporal del uso y cobertura del suelo y sus implicaciones en respuesta hidrológica de la cuenca, describe a nivel de seis unidades espaciales como realizó el cálculo de las áreas de Bosque-No Bosque para los años 1990, 2000, 2005 y 2010 para conocer la evolución histórica del cambio en la coberturas demostrándose relación en zonas de deforestación, incrementos de caudales pero relación directa con la cambios en la precipitación.</t>
   </si>
   <si>
     <t>Fueron definidas 6 unidades hidrográficas, de las cuales 5 corresponden a las áreas de drenaje que se forman aguas arriba de las 5 condiciones de frontera definidas para los modelos 1D y 2D, es decir: a la cuenca alta del río San Jorge, definida desde la estación Montelibano; la cuenca del río Cauca aguas arriba de la estación La Coquera; la cuenca del río Nechí aguas arriba de la estación La Esperanza; la cuenca del río Caribona aguas arriba de la estación La Raya y la cuenca del río Magdalena aguas arriba de la estación Armenia y finalmente, la sexta unidad correspondiente al área denominada de modelación hidrológica tipo Lluvia- Escorrentía con el modelo Sobek (método Sacramento). En estas zonas se analizaron los cambios en la respuesta hidrológica a nivel multitemporal debidos a cambios en el uso del suelo y en la cobertura de la tierra. Específicamente se utilizaron las coberturas de bosque-no bosque para los períodos 1990, 2000, 2005 y 2010 con interpretación de imágenes satelitales Landsat.</t>
   </si>
   <si>
-    <t>Coberturas, uso del suelo, cambios en el uso del suelo,</t>
-  </si>
-  <si>
-    <t>PR011</t>
+    <t>Coberturas, uso del suelo, cambios en el uso del suelo.</t>
+  </si>
+  <si>
+    <t>PR0011</t>
   </si>
   <si>
     <t xml:space="preserve">INFORME_Socavacion </t>
@@ -314,7 +314,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/SOCAVACION/INFORME_Socavacion.pdf</t>
   </si>
   <si>
-    <t>El informe presenta el análisis de socavación, transporte de sedimentos y depositación en la región de la mojana, presentando un marco teórico de erosión, transporte y sedimentación, además de presentar factores necesarios para la modelación según las ecuaciones presentadas en el marco teórico para la aplicación en la región. Posteriormente se presenta el inventario de información sedimentológica existente en donde se presentan los datos recolectados del IDEAM con respecto a caudales sólidos y balances regionales. Por último, se presentan los ejercicios de modelación 1D en Sobek y 2D en Delft 3D presentando la resolución temporal y espacial y sus respectivos resultados junto con un análisis de socavación en estructuras hidráulicas</t>
+    <t>El informe presenta el análisis de socavación, transporte de sedimentos y depositación en la región de La Mojana, presentando un marco teórico de erosión, transporte y sedimentación, además de presentar factores necesarios para la modelación según las ecuaciones presentadas en el marco teórico para la aplicación en la región. Posteriormente se presenta el inventario de información sedimentológica existente en donde se presentan los datos recolectados del IDEAM con respecto a caudales sólidos y balances regionales. Por último, se presentan los ejercicios de modelación 1D en Sobek y 2D en Delft 3D presentando la resolución temporal y espacial y sus respectivos resultados junto con un análisis de socavación en estructuras hidráulicas.</t>
   </si>
   <si>
     <t xml:space="preserve">El informe concluye que los procesos de transporte de sedimentos en la región de la Mojana no provienen principalmente de la erosión de suelos si no de los procesos de erosión hidráulica realizada por los ríos, caños y quebradas. Es de recalcar que hay muy poca información sedimentológica en la región. Además se obtuvo un valor de 172 Ton/ha.año de perdida de suelo potencial y de 10.5 Ton/ha.año de perdida de suelo total, esto quiere decir que es una pérdida de suelo ligera en general dentro los límites del estudio. En cuanto a la minería a cielo abierto se estima que puede remover unos 63.000 millones de metros cúbicos de suelos acuíferos. En cuanto a los ejercicios de modelación en el modelo 1D, las concentraciones resultantes en los caños de la zona sur de La Mojana, se encuentra afectada llegando casi a duplicar su valor normal, al aumentar el caudal por el caño Viloria se reduce la concentración llegando a un promedio de 87 Kg/m3. Para el caño Rabón la concentración acumulada es muy diferente en los dos casos, sin rompederos 4351 Kg/m3 y con rompederos de 50753 Kg/m3 casi 11 veces su valor en dos años. Y por parte del modelo 2D, existen velocidades máximas de hasta 2.4 m/s en algunos puntos frente al municipio de Nechí, lo que si alcanza a socavar el lecho del río._x000D_
@@ -324,16 +324,16 @@
     <t>Si</t>
   </si>
   <si>
-    <t>- Anexo 1 Equivalencias factor C USLE, - Anexo 2 Graficas de Caudal Solido, - Anexo 3 Resultados de concentracion, - Anexo 4 Resultados anteriores, - Anexo 5 Resultados de socavacion</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/SOCAVACION</t>
   </si>
   <si>
     <t>No contiene los archivos de modelos Sobek ni Delft  3D</t>
   </si>
   <si>
-    <t>Socavación, Erosión, Depositación, Transporte de sedimentos. Erodabilidad, Balances regionales, Modelación</t>
-  </si>
-  <si>
-    <t>PR012</t>
+    <t>Socavación, erosión, depositación, transporte de sedimentos, heredabilidad, balances regionales, modelación.</t>
+  </si>
+  <si>
+    <t>PR0012</t>
   </si>
   <si>
     <t xml:space="preserve">INFORME ANALISIS DE INFORMACIÓN SECUNDARIA LA MOJANA. </t>
@@ -348,7 +348,7 @@
     <t xml:space="preserve">El informe presenta un resumen muy corto del análisis de la información secundaria recopilada de la región de La Mojana, con el fin de realizar una caracterización hidrogeológica del área. En la información revisada se incluye estudios geológicos, hidrogeológicos, geofísicos y geoeléctricos principalemente de entidades regionales. </t>
   </si>
   <si>
-    <t xml:space="preserve">Los principales estudios hidrogeológicos que fueron tomados en cuenta son: “Estudio hidrogeológico en la zona de influencia de la Ciénaga de Ayapel”, CVS.  Información de la empresa Aguas de la Mojana S.A. E.S.P. Del análisis geofísico se revisaron los pocos sondeos eléctricos verticales (SEV) realizados por la CVS y Corpomojana. En el análisis y evaluación de pozos profundos, se encontraron registro de 78 pozos. Para el análisis de calidad de agua se encontró información para el acuífero de San Marcos y del municipio de Ayapel, se concluye que se está presentando infiltración de escorrentías superficiales a los piezómetros, se evidencia presencia de mercurio. </t>
+    <t xml:space="preserve">Los principales estudios hidrogeológicos que fueron tomados en cuenta son: “Estudio hidrogeológico en la zona de influencia de la Ciénaga de Ayapel”, de la CVS. Información de la empresa Aguas de la Mojana S.A. E.S.P. del análisis geofísico se revisaron los pocos sondeos eléctricos verticales (SEV) realizados por la CVS y Corpomojana. En el análisis y evaluación de pozos profundos, se encontraron registro de 78 pozos. Para el análisis de calidad de agua se encontró información para el acuífero de San Marcos y del municipio de Ayapel, se concluye que se está presentando infiltración de escorrentías superficiales a los piezómetros y se evidencia la presencia de mercurio. </t>
   </si>
   <si>
     <t xml:space="preserve">Es un informe muy corto que muestra de manera muy resumida el análisis de la información secundaria recopilada. Se toma poco información secundaria, únicamente información de las corporaciones y empresas prestadoras de servicio de agua. No se incluyen información científica generada por otros actores. </t>
@@ -357,7 +357,7 @@
     <t>Sondeos eléctricos verticales, CVS, Corpomojana, mercurio, calidad de agua.</t>
   </si>
   <si>
-    <t>PR013</t>
+    <t>PR0013</t>
   </si>
   <si>
     <t>INFORME MODELO HIDROGEOLÓGICO CONCEPTUAL LA MOJANA</t>
@@ -366,22 +366,22 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/PRODUCTOS CONTRATO 286 DE 2013 - MOJANA/Producto 4. Metodologia MHC/INFORME MODELO HIDROGEOLÓGICO CONCEPTUAL LA MOJANA.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">En este informe se presenta el análisis de los aspectos considerados para la construcción del modelo hidrogeológico conceptual. Entre ellos un análisis de la geología regional y local, la caracterización hidrogeológica regional, de las formaciones del área de la Mojana y la local. Inventario de pozos profundos, Modelo hidrogeológico conceptual regional y supsuperficial. Análisis de zonas de recarga y descarga. Se presenta el mapa hidrogeológico, estimación conceptual de las direcciones de flujo subsuperficial. Se presentan conclusiones del análisis de cada capítulo a lo largo del documento. </t>
-  </si>
-  <si>
-    <t>En la geología regional se analiza la estratigrafía y se construye el mapa geológico a escala 1:250.000, en donde se define que la región de la mojana está integrada principalmente por depósitos cuaternarios. Así mismo, se construye la geología local para los depósitos cuaternarios. Se concluye que el origen de la zona de la mojana corresponde a un graben de origen fluvio-lacustre. La geología subsuperficial (hasta 240 m de profundidad) se construyó a partir de la litología de 15 pozos con registro. Se concluye que existe una gran variabilidad de la composición de los sedimentos y que primeros en los primeros 10 m de profundidad materiales arcillosos. Se presenta la clasificación de las unidades hidrogeológicas (acuífero, acuitardo, acuifuga) en los anexos el mapa. En el estudio se hizo inventario en campo, de pozos profundos y se tomaron niveles piezométricos, en algunos casos se tomaron muestra para análisis de isótopos. De los acuíferos profundos se concluye que se encuentran desconectados del ciclo hidrológico y que la recarga se produjo hace miles de años, por lo que se consideran reservas permanentes, estas aguas son la principal fuente de abastecimiento de agua para consumo humano y en algunas fincas para riego. Para la caracterización de los acuíferos subsuperficiales se utilizaron los análisis de isótopos y balance hídrico a partir de los cuales se concluyó de manera general que dada la heterogeneidad de los depósitos es poco favorable el movimiento de agua subterránea, que la principal forma de descarga es por la explotación de las aguas a través de pozos profundos y aljibes, que dado que la superficie esta cubierta predominantemente por arcillas y limos, y la falta de continuidad entre los pocos lentes de arenas y gravas, no es favorable la infiltración y recarga. La dirección de flujo de agua subterránea regional se considera casi nulo y a nivel subsuperficial se genera hacia los pozos de extracción, y en ciertas zonas en dirección S-N a través de lentes de arena.</t>
-  </si>
-  <si>
-    <t>Anexo producto 4 hidrogeologia</t>
-  </si>
-  <si>
-    <t>Para obtener un mejor acercamiento conceptual de la interacción de las aguas superficiales y subterráneas subsuperficiales, como se meciona en el estudio, se requiere de más datos de nivel, pruebas de bombeo y aplicación de técnicas geofñisicas. El estudio presenta una aproximación al entendimiento de las interacciones pero requiere de mayores análisis para ser concluyente sobre la casi nula interacción.  El documento no relaciona anexos como tal, sin embargo dentro del producto se encuentra una carpeta denominada anexo producto 4 hidrogeología con mapas usados como insumos para el modelo conceptual.</t>
-  </si>
-  <si>
-    <t>Geología, Hidrogeología, isotopos estables, tritio, modelo hidrogeológico conceptual, dirección de flujo, conexión agua superficial agua subterránea, acuidero subsuperficial, modelo regional, modelo geológico, mapa geológico, mapa hidrogeológico.</t>
-  </si>
-  <si>
-    <t>PR014</t>
+    <t xml:space="preserve">En este informe se presenta el análisis de los aspectos considerados para la construcción del modelo hidrogeológico conceptual. Entre ellos un análisis de la geología regional y local, la caracterización hidrogeológica regional, de las formaciones del área de la Mojana y la local. Inventario de pozos profundos, modelo hidrogeológico conceptual regional y supsuperficial. Análisis de zonas de recarga y descarga. Se presenta el mapa hidrogeológico, estimación conceptual de las direcciones de flujo subsuperficial. Se presentan conclusiones del análisis de cada capítulo a lo largo del documento. </t>
+  </si>
+  <si>
+    <t>En la geología regional se analiza la estratigrafía y se construye el mapa geológico a escala 1:250.000, en donde se define que la región de La Mojana está integrada principalmente por depósitos cuaternarios. Así mismo, se construye la geología local para los depósitos cuaternarios. Se concluye que el origen de la zona de la mojana corresponde a un graben de origen fluvio-lacustre. La geología subsuperficial (hasta 240 m de profundidad) se construyó a partir de la litología de 15 pozos con registro. Se concluye que existe una gran variabilidad de la composición de los sedimentos y que los primeros 10 m de profundidad materiales arcillosos. Se presenta la clasificación de las unidades hidrogeológicas (acuífero, acuitardo, acuifuga) en los anexos el mapa. En el estudio se hizo inventario en campo, de pozos profundos y se tomaron niveles piezométricos, en algunos casos se tomaron muestra para análisis de isótopos. De los acuíferos profundos se concluye que se encuentran desconectados del ciclo hidrológico y que la recarga se produjo hace miles de años, por lo que se consideran reservas permanentes, estas aguas son la principal fuente de abastecimiento de agua para consumo humano y en algunas fincas para riego. Para la caracterización de los acuíferos subsuperficiales se utilizaron los análisis de isótopos y balance hídrico a partir de los cuales se concluyó de manera general que dada la heterogeneidad de los depósitos es poco favorable el movimiento de agua subterránea, que la principal forma de descarga es por la explotación de las aguas a través de pozos profundos y aljibes, dado que la superficie esta cubierta predominantemente por arcillas y limos, y la falta de continuidad entre los pocos lentes de arenas y gravas, no es favorable la infiltración y recarga. La dirección de flujo del agua subterránea regional se considera casi nula y a nivel subsuperficial se genera hacia los pozos de extracción, y en ciertas zonas en dirección S-N a través de lentes de arena.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/PRODUCTOS CONTRATO 286 DE 2013 - MOJANA/Producto 4. Metodologia MHC/Anexo producto 4 hidrogeologia</t>
+  </si>
+  <si>
+    <t>Para obtener un mejor acercamiento conceptual de la interacción de las aguas superficiales y subterráneas subsuperficiales, como se menciona en el estudio, se requiere de más datos de nivel, pruebas de bombeo y aplicación de técnicas geofísicas. El estudio presenta una aproximación al entendimiento de las interacciones pero requiere de mayores análisis para ser concluyente sobre la casi nula interacción.  El documento no relaciona anexos como tal, sin embargo dentro del producto se encuentra una carpeta denominada anexo producto 4 hidrogeología con mapas usados como insumos para el modelo conceptual.</t>
+  </si>
+  <si>
+    <t>Geología, hidrogeología, isotopos estables, tritio, modelo hidrogeológico conceptual, dirección de flujo, conexión agua superficial agua subterránea, acuífero subsuperficial, modelo regional, modelo geológico, mapa geológico, mapa hidrogeológico.</t>
+  </si>
+  <si>
+    <t>PR0014</t>
   </si>
   <si>
     <t>INFORME ANÁLISIS DE VARIABLES DE INFILTRACIÓN Y RECARGA LA MOJANA</t>
@@ -390,19 +390,19 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/PRODUCTOS CONTRATO 286 DE 2013 - MOJANA/Producto 5. Análsis de infiltración y recarga/INFORME ANÁLISIS DE VARIABLES DE INFILTRACIÓN Y RECARGA LA MOJANA.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">En este informe se presenta el análisis de las variables de infiltración y recarga hídrica y su articulación con el ciclo hidrológico superficial de la región de la Mojana, para este fin se interpretó la información geológica disponible, los resultados del balance hídrico realizado en el proyecto y se incluyeron los análisis de isótopos estables (oxigeno 18 y deuterio) y tritio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Del análisis de las características geológicas, se concluye que el terreno está compuesto en su mayoría por una capa de arcillas arenosas (baja permeabilidad) que limita la infiltración y recarga hacia niveles acuíferos subsuperficiales y profundos, lo mismo ocurre para la recarga por precipitación. Sólo en algunas zonas, con niveles arenosos se favorece la recarga y la infiltración, pero la discontinuidad lateral y en profundidad los deja como lentes de agua aislados. Por las características hidrográficas se concluye que las ciénagas se conservan con agua porque están sobre depósitos arcillosos que impiden que el agua se infiltre a través del subsuelo. El balance hídrico indica que no hay infiltración local en la cuenca local sino un aporte de cuencas aledañas no identificadas. El resultado del análisis isotópico se presenta en otro documento. </t>
+    <t xml:space="preserve">En este informe se presenta el análisis de las variables de infiltración, recarga hídrica y su articulación con el ciclo hidrológico superficial de la región de La Mojana, para este fin se interpretó la información geológica disponible, los resultados del balance hídrico realizado en el proyecto y se incluyeron los análisis de isótopos estables (oxigeno 18 y deuterio) y tritio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del análisis de las características geológicas, se concluye que el terreno está compuesto en su mayoría por una capa de arcillas arenosas (baja permeabilidad) que limita la infiltración y recarga los acuíferos subsuperficiales y profundos, lo mismo ocurre para la recarga por precipitación. Sólo en algunas zonas, con niveles arenosos se favorece la recarga y la infiltración, pero la discontinuidad lateral y en profundidad los deja como lentes de agua aislados. Por las características hidrográficas se concluye que las ciénagas se conservan con agua porque están sobre depósitos arcillosos que impiden que el agua se infiltre a través del subsuelo. El balance hídrico indica que no hay infiltración local en la cuenca, sino un aporte de cuencas aledañas no identificadas. El resultado del análisis isotópico se presenta en otro documento. </t>
   </si>
   <si>
     <t xml:space="preserve">Se concuerda con el estudio que para establecer con mayor precisión la conexión entre el agua de las ciénagas y el agua subterránea se requiere disponer de datos para establecer correlaciones entre los niveles de los pozos y los niveles de las ciénagas. En el estudio no se hace la verificación de parámetros hidráulicos ni modelo hidrogeológicos numéricos que validen las conclusiones realizadas. No se presenta en detalle el balance hídrico. Se considera valiosos los resultados obtenidos, pero son una aproximación al conocimiento de la interacción. </t>
   </si>
   <si>
-    <t>Interacción agua superficial agua subterránea, infiltración, balance hídrico, analisis de recarga</t>
-  </si>
-  <si>
-    <t>PR015</t>
+    <t>Interacción agua superficial agua subterránea, infiltración, balance hídrico, análisis de recarga</t>
+  </si>
+  <si>
+    <t>PR0015</t>
   </si>
   <si>
     <t>INFORME FINAL LA MOJANA 2015</t>
@@ -411,24 +411,19 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/PRODUCTOS CONTRATO 286 DE 2013 - MOJANA/Producto 6. Informe final de actividades/INFORME FINAL LA MOJANA 2015.pdf</t>
   </si>
   <si>
-    <t>Se presenta el informe final de la caracterización hidrogeológica de la región de La Mojana con el fin de incorporarlos en la modelación hidrodinámica de la Mojana. Se hace principal énfasis en entender las interacciones de los cuerpos de agua superficial y subsuperficial. Este documento contiene la compilación de 4 informes parciales, Informe análisis de información secundaria, Informe análisis de variables de infiltración y recarga, Informe análisis isotópicos e Informe modelo Hidrogeológico Conceptual de La Mojana. Finalmente se adicionan conclusiones y recomendaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este informe se presenta con mayor detalle la información secundaria recopilada. Respecto a la implicación del modelo hidrogeológico conceptual en el modelo hidrodinámico superficial se concluye con la información disponible que la infiltración y recarga de los acuíferos a nivel regional es muy baja en la mayor parte del área lo cual elimina una incógnita en los modelos matemáticos de la modelación hidrodinámica. A nivel local en algunas zonas los cauces de agua superficial pueden estar sobre materiales permeables que permitan infiltración, los caudales infiltrados pueden emerger aguas abajo en forma de flujo base, pero no presentar recarga a los acuíferos profundos. Puede existir algún movimiento del agua subterránea a nivel subsuperficial en dirección S-N a través de lentes de arena interconectados hidráulicamente con los ríos San Jorge, Cauca y Magdalena o en dirección NE (fuera del polígono del Proyecto). Se recomienda la modelación hidrogeológica numérica par aun estudio mas detallado. </t>
-  </si>
-  <si>
-    <t>Análisis fisicoquimico - Anexo2, _x000D_
-Fichas de pozos - anexo 3, _x000D_
-Columnas litológicas - anexo 4</t>
-  </si>
-  <si>
-    <t>No se presentan los anexos: Análisis fisicoquimico - Anexo2, Fichas de pozos - anexo 3, Columnas litológicas - anexo 4, El estudio presentado no contempla pruebas de bombeo y monitoreo en pozos de observación para la determinación y análisis de parámetros hidráulicos como transmisividad, conductividad, coeficiente de almacenamiento.  Se considera valiosos los resultados obtenidos, pero son una aproximación al conocimiento de la interacción.</t>
-  </si>
-  <si>
-    <t>Geología, Hidrogeología, isotopos estables, tritio, modelo hidrogeológico conceptual, dirección de flujo, conexión agua superficial agua subterránea, acuífero subsuperficial, modelo regional, modelo geológico, mapa geológico, mapa hidrogeológico.</t>
-  </si>
-  <si>
-    <t>PR016</t>
+    <t>Se presenta el informe final de la caracterización hidrogeológica de la región de La Mojana con el fin de incorporarlos en la modelación hidrodinámica de La Mojana. Se hace principal énfasis en entender las interacciones de los cuerpos de agua superficial y subsuperficial. Este documento contiene la compilación de 4 informes parciales: informe análisis de información secundaria, informe análisis de variables de infiltración y recarga, informe análisis isotópicos e informe modelo hidrogeológico conceptual de La Mojana. Finalmente se adicionan conclusiones y recomendaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este informe se presenta con mayor detalle la información secundaria recopilada. Respecto a la implicación del modelo hidrogeológico conceptual en el modelo hidrodinámico superficial se concluye con la información disponible que la infiltración y recarga de los acuíferos a nivel regional es muy baja en la mayor parte del área lo cual elimina una incógnita en los modelos matemáticos de la modelación hidrodinámica. A nivel local en algunas zonas los cauces de agua superficial pueden estar sobre materiales permeables que permitan infiltración, los caudales infiltrados pueden emerger aguas abajo en forma de flujo base, pero no presentar recarga a los acuíferos profundos. Puede existir algún movimiento del agua subterránea a nivel subsuperficial en dirección S-N a través de lentes de arena interconectados hidráulicamente con los ríos San Jorge, Cauca y Magdalena o en dirección N-E (fuera del polígono del Proyecto). Se recomienda la modelación hidrogeológica numérica para un estudio más detallado. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/PRODUCTOS CONTRATO 286 DE 2013 - MOJANA/Producto 6. Informe final de actividades/Anexo producto 6 Hidrogeologia</t>
+  </si>
+  <si>
+    <t>No se presentan los anexos: análisis fisicoquimico - anexo2, fichas de pozos - anexo 3, columnas litológicas - anexo 4. El estudio presentado no contempla pruebas de bombeo y monitoreo en pozos de observación para la determinación y análisis de parámetros hidráulicos como transmisividad, conductividad, coeficiente de almacenamiento.  Se considera valiosos los resultados obtenidos, pero son una aproximación al conocimiento de la interacción.</t>
+  </si>
+  <si>
+    <t>PR0016</t>
   </si>
   <si>
     <t>INFORME ANÁLISIS ISOTÓPICOS</t>
@@ -437,23 +432,23 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/PRODUCTOS CONTRATO 286 DE 2013 - MOJANA/Producto Análisis Isotópicos/INFORME ANÁLISIS ISOTÓPICOS.pdf</t>
   </si>
   <si>
-    <t>El informe presenta el análisis de los muestreos de isótopos realizados en la región de La Mojana, con el propósito de investigar la interacción entre el agua superficial y el agua subsuperficial. Se analizan los isótopos estables Deuterio y O18, tritio. Se realizan unas conclusiones para la construcción del modelo hidrogeológico conceptual y apoyo a los modelos hidrodinámicos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para el análisis de tritio se tomaron 6 muestras de agua subterránea, los resultados indican que no existe infiltración de agua superficial hacia los niveles acuíferos entre 60 y 250 m, es decir, no se considera que las aguas tengas infiltración actual. En general se indica que la infiltración regional es muy baja con tendencia a cero. Este resultado permite concluir al estudio que la relación hidráulica de los cuerpos de agua superficial con las aguas subterráneas no es relevante en términos cuantitativos. En el análisis de Oxigeno y deuterio se analizaron 70 muestras, de las cuales 43 de pozos profundos y 27 de cuerpos de agua superficiales. Se realizan análisis e hipótesis para establecer la relación de origen de las aguas en diferentes pozos con los cuerpos de agua superficial cercanos (río, ciénaga, caño). De este análisis de concluye que el agua subterránea no tiene recarga de los cuerpos de agua superficial, sólo en algunos pozos se establece conexión con aguas superficiales. También se recomienda realizar más análisis de isótopos en diferentes periodos del año para conocer la variabilidad isotópica de las aguas y estimar tiempos de tránsito entre los puntos muestreados. _x000D_
+    <t>El informe presenta el análisis de los muestreos de isótopos realizados en la región de La Mojana, con el propósito de investigar la interacción entre el agua superficial y el agua subsuperficial. Se analizan los isótopos estables deuterio y O18, tritio. Se realizan unas conclusiones para la construcción del modelo hidrogeológico conceptual y apoyo a los modelos hidrodinámicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para el análisis de tritio se tomaron 6 muestras de agua subterránea, los resultados indican que no existe infiltración de agua superficial hacia los niveles de los acuíferos entre 60 y 250 m, es decir, no se considera que las aguas se infiltren actualmente. En general se indica que la infiltración regional es muy baja con tendencia a cero. Este resultado permite concluir al estudio que la relación hidráulica de los cuerpos de agua superficial con las aguas subterráneas no es relevante en términos cuantitativos. En el análisis de oxigeno y deuterio se analizaron 70 muestras, de las cuales 43 de pozos profundos y 27 de cuerpos de agua superficiales. Se realizan análisis e hipótesis para establecer la relación de origen de las aguas en diferentes pozos con los cuerpos de agua superficial cercanos (río, ciénaga, caño). De este análisis se concluye que el agua subterránea no tiene recarga de los cuerpos de agua superficial, sólo en algunos pozos se establece conexión con aguas superficiales. También se recomienda realizar más análisis de isótopos en diferentes periodos del año para conocer la variabilidad isotópica de las aguas y estimar tiempos de tránsito entre los puntos muestreados. 
 </t>
   </si>
   <si>
-    <t>Anexo analisis isotopicos</t>
-  </si>
-  <si>
-    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal como se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos de cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. EN los anexos se relacionan los resultados de muestras de análisis isotópicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isótopos, tritio, deuterio,oxigeno 18, conexion agua superficial agua subterránea, origen del agua, isotopos estables, isotopos radiaoctivos, modelo hidrogeologico conceptual, infiltración. </t>
-  </si>
-  <si>
-    <t>PR017</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/HIDROGEOLOGIA/PRODUCTOS CONTRATO 286 DE 2013 - MOJANA/Producto Análisis Isotópicos/Anexo analisis isotopicos</t>
+  </si>
+  <si>
+    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal cómo se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere de un mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. En los anexos se relacionan los resultados de muestras de análisis isotópico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isótopos, tritio, deuterio, oxigeno 18, conexión agua superficial agua subterránea, origen del agua, isótopos estables, isótopos radiactivos, modelo hidrogeológico conceptual, infiltración. </t>
+  </si>
+  <si>
+    <t>PR0017</t>
   </si>
   <si>
     <t>20160131_INFORME DE CONSTRUCCIÓN DEL MODELO CONCEPTUAL</t>
@@ -462,19 +457,19 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION AMENAZA/20160131_INFORME DE CONSTRUCCIÓN DEL MODELO CONCEPTUAL.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Este informe corresponde a la construcción del modelo conceptual para evaluar la amenaza por inundación en la región de La Mojana. Consta de 9 capítulos distribuido de la siguiente manera: capítulo 1). Corresponde a la introducción sobre la importancia del modelo conceptual y el computacional; capítulo 2). Se presenta la amenaza como un componente del riesgo y se realiza un análisis del enfoque de la amenaza basado en eventos; capítulo 3). Se presenta el modelo conceptual para la región de La Mojana, representando el sistema de la manera más simplificada posible de tal forma que pueda ser entendido, y que los procesos más relevantes puedan ser descritos a través de los datos disponibles; capítulo 4). Se hace una descripción de los arboles de eventos y arboles de falla para sistemas en paralelo y serie; capítulo 5). Se presentan los mecanismos de fallas de las obras de protección; capítulo 6). Se describen e identifican los puntos críticos en la región de La Mojana; capítulo 7). Se plantea la metodología general para la generación de mapas de amenaza y la estimación del riesgo; capítulo 8). Se realiza la evaluación probabilística del riesgo; y capítulo 9). Se realiza la interacción entre la modelación de la amenaza y la modelación de riesgos.      </t>
-  </si>
-  <si>
-    <t>En este informe, con el fin representar de mejor manera la complejidad conceptual de la región de la Mojana en el marco de la simulación de escenarios de amenaza se propone el ensamble de un modelo meteorológico, hidrológico e hidráulico, considerando que uno alimenta al otro. Para realizar la modelación hidrodinámica en La Mojana se propone un modelo distribuido basado en la física que considera la región de estudio como un sistema que integra el comportamiento natural de los cuerpos de agua con la ocurrencia de rompimientos de estructuras hidráulicas. El mayor reto de este análisis es encontrar un equilibrio entre los recursos computacionales requeridos y la precisión de los resultados generados. Bajo este esquema, se identificaron puntos críticos y/o fallas que han tenido lugar en la región, tales como Caregato, Doña Julia – El Brazuelo, Colorado, Nechí, Tenche, San Jacinto del Cauca, Achí, Majagual, Guaranda, Sucre, Puerto Venecia – Guacamayo, Dique Sehebe – San Marcos, Dique Sehebe – Cecilia – Alfonso López – Tiesto, Ayapel, El Torno y San Benito de Abad.</t>
+    <t xml:space="preserve">Este informe corresponde a la construcción del modelo conceptual para evaluar la amenaza por inundación en la región de La Mojana. Consta de 9 capítulos distribuido de la siguiente manera: capítulo 1). Corresponde a la introducción sobre la importancia del modelo conceptual y el computacional; capítulo 2). Se presenta la amenaza como un componente del riesgo y se realiza un análisis del enfoque de la amenaza basado en eventos; capítulo 3). Se presenta el modelo conceptual para la región de La Mojana, representando el sistema de la manera más simplificada posible de tal forma que pueda ser entendido y que los procesos más relevantes puedan ser descritos a través de los datos disponibles; capítulo 4). Se hace una descripción de los arboles de eventos y arboles de falla para sistemas en paralelo y serie; capítulo 5). Se presentan los mecanismos de fallas de las obras de protección; capítulo 6). Se describen e identifican los puntos críticos en la región de La Mojana; capítulo 7). Se plantea la metodología general para la generación de mapas de amenaza y la estimación del riesgo; capítulo 8). Se realiza la evaluación probabilística del riesgo; y capítulo 9). Se realiza la interacción entre la modelación de la amenaza y la modelación de riesgos.      </t>
+  </si>
+  <si>
+    <t>En este informe, con el fin representar de mejor manera la complejidad conceptual de la región de La Mojana en el marco de la simulación de escenarios de amenaza se propone el ensamble de un modelo meteorológico, hidrológico e hidráulico, considerando que uno alimenta al otro. Para realizar la modelación hidrodinámica de La Mojana se propone un modelo distribuido basado en la física que considera la región de estudio como un sistema que integra el comportamiento natural de los cuerpos de agua con la ocurrencia de rompimientos de estructuras hidráulicas. El mayor reto de este análisis es encontrar un equilibrio entre los recursos computacionales requeridos y la precisión de los resultados generados. Bajo este esquema, se identificaron puntos críticos y/o fallas que han tenido lugar en la región, tales como Caregato, Doña Julia – El Brazuelo, Colorado, Nechí, Tenche, San Jacinto del Cauca, Achí, Majagual, Guaranda, Sucre, Puerto Venecia – Guacamayo, dique Sehebe – San Marcos, dique Sehebe – Cecilia – Alfonso López – Tiesto, Ayapel, El Torno y San Benito de Abad.</t>
   </si>
   <si>
     <t>Los anexos de este documento se relacionan en el informe de resultados de la modelación de la amenaza por inundación</t>
   </si>
   <si>
-    <t>Amenaza, riesgo, modelo conceptual, inundaciones, Sobek, puntos críticos, Caregato, Doña Julia – El Brazuelo, Colorado, Nechí, Tenche, San Jacinto del Cauca, Achí, Majagual, Guaranda, Sucre, Puerto Venecia – Guacamayo, Dique Sehebe – San Marcos, Dique Sehebe – Cecilia – Alfonso López – Tiesto, Ayapel, El Torno y San Benito de Abad, dique, arboles de eventos, arboles de falla, probabilidad.</t>
-  </si>
-  <si>
-    <t>PR018</t>
+    <t>Amenaza, riesgo, modelo conceptual, inundaciones, Sobek, puntos críticos, Caregato, Doña Julia – El Brazuelo, Colorado, Nechí, Tenche, San Jacinto del Cauca, Achí, Majagual, Guaranda, Sucre, Puerto Venecia – Guacamayo, dique Sehebe – San Marcos, dique Sehebe – Cecilia – Alfonso López – Tiesto, Ayapel, El Torno, San Benito de Abad, dique, arboles de eventos, arboles de falla, probabilidad.</t>
+  </si>
+  <si>
+    <t>PR0018</t>
   </si>
   <si>
     <t>INFORME_Conectividad</t>
@@ -483,202 +478,169 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION AMENAZA/INFORME_Conectividad.pdf</t>
   </si>
   <si>
-    <t>Miguel Ángel Hernández Fuerte</t>
-  </si>
-  <si>
-    <t>Este informe muestra la gran variedad de cuerpos hídricos de la región de La Mojama y su relacionamiento entre sí. Este documento hace parte del producto de conectividad hidráulica dentro de lo que es el marco de la modelación hidrodinámica de la región de la Mojana y se enfatiza en la selección de los elementos hidráulicos más relevantes en la región. Como primera medida se evalúa la conectividad de acuerdo a estudios realizados en la región; luego se compara la conectividad de estos estudios con el fin de observar las similitudes y/o diferencias; finalmente, para los elementos seleccionados se realiza una descripción detallada de cada uno de estos para conocer sus características y vínculos dentro del sistema hídrico de La Mojana. Este informe está compuesto por 9 capítulos incluyendo las conclusiones, referencias y anexos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este informe se describe la complejidad de la región de La Mojana en el tema de conectividad hidráulica, lo cual queda demostrado en varios estudios que han tratado de simplificar de varias maneras el sistema de caños, ciénagas y ríos. De estos estudios se pudo extraer una primera lista de caños primordiales en la región, ya que son los que más se repiten y que han tenido más trascendencia en la región. En este sentido, los eventos catastróficos en la región son generados por los rompederos que alteran la conectividad de los cuerpos hídricos. Estos ocasionan nuevas conexione hídricas, tales como, los observados en el sector de Colorado, Nechí y San Jacinto del Cauca. Por otro lado, las fuertes precipitación ocasionan el aumento del nivel de las ciénagas y caños, generan conexiones hídricas en las zonas con pendientes muy bajas como en sectores del río San Jorge en cercanías a San Benito Abad, La Jegua y Santiago Apostol. Debido a intereses económicos se han modificado las conectividades hídricas en la región con la ayuda de maquinaria para generar canales con fines de riego u otros usos que conllevan a la creación de más conectividades entre cuerpos de agua. La minería aluvial, es otro importante aspecto en los cambios en las conectividades, en la quebrada Quebradona, Escobillas y Trejos, taponan el alineamiento normal de la corriente, causando desvinculo o almacenamiento temporal. La carga de sedimentos que algunas corrientes en el interior de La Mojana, sumado con las bajas velocidades de estas, generan sedimentación en las zonas más planas, cambiando el sentido de una corriente o el ancho de la misma uniéndose lentamente con otros cuerpos de agua. Por lo anterior es importante establecer la conectividad hídrica para un determinado de tiempo._x000D_
+    <t>Este informe muestra la gran variedad de cuerpos hídricos de la región de La Mojama y su relacionamiento entre sí. Este documento hace parte del producto de conectividad hidráulica dentro de lo que es el marco de la modelación hidrodinámica de la región de La Mojana y se enfatiza en la selección de los elementos hidráulicos más relevantes en la región. Como primera medida se evalúa la conectividad de acuerdo a estudios realizados en la región; luego se compara la conectividad de estos estudios con el fin de observar las similitudes y/o diferencias; finalmente, para los elementos seleccionados se realiza una descripción detallada de cada uno de estos para conocer sus características y vínculos dentro del sistema hídrico de La Mojana. Este informe está compuesto por 9 capítulos incluyendo las conclusiones, referencias y anexos.</t>
+  </si>
+  <si>
+    <t>En este informe se describe la complejidad de la región de La Mojana en el tema de conectividad hidráulica, lo cual queda demostrado en varios estudios que han tratado de simplificar de varias maneras el sistema de caños, ciénagas y ríos. De estos estudios se pudo extraer una primera lista de caños primordiales en la región, ya que son los que más se repiten y que han tenido más trascendencia en la región. En este sentido, los eventos catastróficos en la región son generados por los rompederos que alteran la conectividad de los cuerpos hídricos. Estos ocasionan nuevas conexione hídricas, tales como, los observados en el sector de Colorado, Nechí y San Jacinto del Cauca. Por otro lado, las fuertes precipitación ocasionan el aumento del nivel de las ciénagas y caños, generan conexiones hídricas en las zonas con pendientes muy bajas como en sectores del río San Jorge en cercanías a San Benito Abad, La Jegua y Santiago Apóstol. Debido a intereses económicos se han modificado las conectividades hídricas en la región con la ayuda de maquinaria para generar canales con fines de riego u otros usos que conllevan a la creación de más conectividades entre cuerpos de agua. La minería aluvial, es otro importante aspecto en los cambios en las conectividades, en la quebrada Quebradona, Escobillas y Trejos, taponan el alineamiento normal de la corriente, causando desvinculo o almacenamiento temporal. La carga de sedimentos que algunas corrientes en el interior de La Mojana, sumado con las bajas velocidades de estas, generan sedimentación en las zonas más planas, cambiando el sentido de una corriente o el ancho de la misma uniéndose lentamente con otros cuerpos de agua. Por lo anterior es importante establecer la conectividad hídrica para un determinado tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los anexos se encuentran dentro de mismo informe y no como archivos externos.  </t>
+  </si>
+  <si>
+    <t>Caños, conectividad hídrica, inundaciones, sedimentación, ríos, ciénagas, quebradas, arroyos.</t>
+  </si>
+  <si>
+    <t>PR0019</t>
+  </si>
+  <si>
+    <t>20160131_INFORME DE CALIBRACION DEL MODELO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION AMENAZA/20160131_INFORME DE CALIBRACION DEL MODELO.pdf</t>
+  </si>
+  <si>
+    <t>Este informe corresponde al diseño y calibración del modelo hidrológico e hidrodinámico de la región de La Mojana. Consta de 5 capítulos distribuido de la siguiente manera: capítulo 1). Corresponde a la introducción que plantea la importancia de los modelos, su clasificación y el esquema que será utilizado para la región de La Mojana; capítulo 2). Se presenta el modelo conceptual general, como el análisis de sistemas y aproximación integral para la región de La Mojana; capítulo 3). Se presentan los modelos hidrológicos desarrollados para La Mojana en 5 grandes bloques; capítulo 4). Se presenta el modelo hidrodinámico unidimensional; y en el capítulo 5). Se presenta el modelo hidrodinámico 1D-2D para La Mojana.</t>
+  </si>
+  <si>
+    <t>En este informe se establece el uso de un modelo distribuido basado en la física que considera la región de estudio como un sistema que integra el comportamiento natural de los cuerpos de agua con la ocurrencia de rompimientos de estructuras hidráulicas. En este sentido, para el modelo lluvia escorrentía se hizo uso de la versión del modelo de sacramento incorporado en el software Sobek, que básicamente representa los procesos lluvia escorrentía mediante el uso de tanques y ecuaciones que representan los flujos entre estos. Este modelo se subdividió en 5 grandes bloques: Cauca Hidroituango, Mojana, río Caribona, río Alto San Jorge y Bajo Nechí, los cuales se calibraron con la información de las estaciones meteorológicas del IDEAM existentes en la zona. Es importante señal que, en el proceso de calibración del modelo hidrológico se integra el modelo 1D inmediatamente. Para la calibración del modelo 1D-2D se utilizó la imagen disponible en el período usado para la calibración del modelo hidrológico y 1-D (2009-2010). De igual manera, la calibración se realiza cambiando sistemáticamente los valores de los coeficientes de rugosidad de Manning hasta que las manchas de inundación simulada y observada correspondieran.</t>
+  </si>
+  <si>
+    <t>Los anexos de este documento se relacionan en el informe de resultados de la modelación de la amenaza por inundación.</t>
+  </si>
+  <si>
+    <t>Calibración, modelo 1D, modelo 1D-2D, Sobek, lluvia, escorrentía, Cauca Hidroituango, Mojana, río Caribona, río Alto San Jorge, Bajo Nechí, modelo hidrodinámico, modelo hidráulico, modelo hidrológico, inundaciones.</t>
+  </si>
+  <si>
+    <t>PR0020</t>
+  </si>
+  <si>
+    <t>RESULTADOS AMENAZA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION AMENAZA/RESULTADOS AMENAZA.pdf</t>
+  </si>
+  <si>
+    <t>En el presente informe se describe la metodología y resultados obtenidos de la modelación de la amenaza por inundación, los cuales, son insumo básico para el análisis, evaluación y gestión del riesgo. Este informe está compuesto por 6 títulos. Título 1. Corresponde a la introducción general del informe. Título 2. Se presentan los aspectos generales como el contexto e interacción para la modelación hidrodinámica y el modelo 1D-2D. Título 3. Se presentan los resultados del proceso de modelación. Título 4. Se realizan las conclusiones generales de los resultados. Título 5. Corresponde a los anexos. Título 6. Corresponde a las fuentes bibliográficas consultadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este informe, para la configuración de los escenarios de amenaza se generaron series a nivel diario y para un periodo de simulación de un año, teniendo en cuenta 10 clases y 4 combinaciones por clase, con un total de 37 eventos de forcing hidrológico. Para el análisis de la amenaza fueron incluidas las curvas de fragilidad de diques existentes, específicamente entre los sectores de Colorado y Cerro las Brisas (Astilleros). Con base en las clases y combinaciones del forcing hidrológico, las tres topologías asociadas al mecanismo de falla del Overtopping, se realizaron inicialmente 111 simulaciones hidrodinámicas, con paso de tiempo de cálculo de 10 minutos, almacenando datos cada hora y salidas de profundidad de agua, nivel de la lámina de agua y velocidades cada día. Posteriormente, se realizaron 60 simulaciones adicionales (para un total de 171), variando el ancho de la sección de rompedero entre 50 y 200 m, todas las simulaciones anteriores fueron configuradas con ancho de rompedero de 100 m y 2 m de altura. De los 171 escenarios de amenaza simulados, solamente 31 no presentan falla (rompimiento). EL caudal máximo promedio que sale en un rompimiento, se presenta en la zona Z01 con 579 m3/s, siguiéndole la zona Z12 con 405 m3/s. Con base en los resultados obtenidos de los 171 escenarios de amenaza, el EMA generó para cada uno de ellos, mapas de profundidad (manchas de inundación), velocidad y duración de las inundaciones. Como trabajo futuro, es posible explorar e incluir otros mecanismos de falla, igual que diferentes configuraciones geométricas de los rompederos para evaluar sus resultados.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">-Anexo No 1. Tablas de conexión, -Anexo No 2. Mapa topológico de La Mojana   _x000D_
+    <t>En el documento se relacionan los anexos, sin embargo, estos no se encuentran dentro de las carpetas del proyecto suministradas.</t>
+  </si>
+  <si>
+    <t>Escenarios, modelación, amenaza por inundación, Sobek, La Mojana, rompederos, diques, modelación hidrológica, modelación hidrodinámica, modelación hidráulica.</t>
+  </si>
+  <si>
+    <t>PR0021</t>
+  </si>
+  <si>
+    <t>PRODUCTO 7-SIMULACION ALTERNATIVAS</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION ALTERNATIVAS/PRODUCTO 7-SIMULACION ALTERNATIVAS.pdf</t>
+  </si>
+  <si>
+    <t>El presente informe tiene como objetivo describir de forma general, la metodología desarrollada para la configuración y construcción de las topologías a incluir en la herramienta computacional, previamente construida por el EMA (modelo hidrodinámico 1D/2D), para simular las alternativas de intervención que servirán como insumo para el desarrollo del plan de acción de La Mojana. El informe está compuesto por 6 capítulos de la siguiente manera: capítulo 1). Corresponde a la introducción; capítulo 2). Aspectos preliminares; capítulo 3). Modelación de alternativas de intervención UNAL-DNP; capítulo 4). Conclusiones; capítulo 5). Anexo digital; y capítulo 6). Referencias bibliográficas.</t>
+  </si>
+  <si>
+    <t>En este informe se plantearon 4 alternativas: 1). Alternativa 2-1 (2) que consiste en el realce del dique existente (Marginal), entre los sectores de Colorado y el Cerro Las Brisas; 2). Alternativa 2-2 (3) que consiste en el realce del dique existente (Marginal), entre los sectores de Colorado y Pinillos (específicamente, hasta el corregimiento de Coyongal); 3). Alternativa 3-2L (4) que consiste en la inclusión de cuatro estructuras de derivación en el dique existente; y 4). Alternativa 3-3L (5) que consiste en la inclusión de 3 estructuras de derivación en el dique existente, las cuales permiten almacenar y amortiguar los caudales de exceso en tres áreas preestablecidas y que se encuentran delimitadas por el dique paralelo nuevo propuesto (de forma modular), una vez las zonas de amortiguamiento y almacenamiento son excedidas en su capacidad, serán activadas otras tres estructuras de derivación que ya permitirán el ingreso de agua al interior de La Mojana. Para la configuración de las 4 alternativas de intervención, se utilizaron las clases y combinaciones del forcing hidrológico (37), definidas en el análisis de la amenaza, y se generaron las topologías asociadas a cada alternativa, realizando 148 simulaciones hidrodinámicas, con paso de tiempo de cálculo de 10 minutos, almacenando datos cada hora y salidas de profundidad de agua, nivel de la lámina de agua y velocidades.</t>
+  </si>
+  <si>
+    <t>Escenarios, modelación, amenaza por inundación, Sobek, La Mojana, rompederos, diques, modelación hidrológica, modelación hidrodinámica, modelación hidráulica, alternativas.</t>
+  </si>
+  <si>
+    <t>PR0022</t>
+  </si>
+  <si>
+    <t>INFORME_1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/INFORME INFORMACION EXISTENTE/INFORME_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento tiene como objetivo evaluar los modelos hidrológicos, hidráulicos, hidrogeológicos e hidrodinámicos existentes en la zona de La Mojana incluyendo la revisión e identificación de variables, datos y procedimientos del modelo desarrollado por la Universidad Nacional de Colombia en el marco del convenio UN- DNP 336 de 2011, así como la revisión de los resultados de la simulación desarrollado por la Universidad del Norte en el marco del convenio 1069-2011 con INVIAS, y los resultados de otros estudios en la zona de estudio en su área de influencia, la revisión y análisis de la información secundaria para establecer dinámicas del sistema de drenaje Cauca – San Jorge, se ha preparado y procesado la información para generar y construir mapas temáticos y se ha validado la información de los datos hidro-meteorológicos y preparado mapas de inundación basados en imágenes históricas procesadas. </t>
+  </si>
+  <si>
+    <t>Como resultado de los objetivos propuestos del documento se realiza un análisis de la información disponible a la fecha de edición del mismo y cubre los aspectos más relevantes para dar inicio a la construcción del modelo conceptual para la modelación hidrodinámica de la zona de La Mojana.  El documento se encuentra dividido en 13 capítulos. El contenido de cada capítulo se describe brevemente a continuación: en el capítulo uno se hace una breve introducción y presentación del informe, el capítulo 2 contiene la localización y descripción general de la zona de estudio, el capítulo tres identifica las fuentes de información espacializada de la región, el capítulo cuatro describe los aspectos topográficos y batimétricos, el capítulo cinco presenta un análisis del clima de la zona de estudio, en el capítulo seis se presenta la información hidrológica, en el capítulo siete se describe las características hidráulicas de la región, en el capítulo ocho se analizan los procesos de erosión y sedimentación de la región, el capítulo nueve muestra el análisis de los procesos geomorfológicos, el capítulo diez hace una breve descripción de las intervenciones realizadas en la región, el capítulo once presenta los comentarios finales y el trabajo futuro, finalmente en el capítulo doce se encuentran las referencias y en el trece los anexos.</t>
+  </si>
+  <si>
+    <t>Los anexos citados en el documento son magnéticos y se relacionan en el documento. Sin embargo, no se identificaron en las carpetas del proyecto.</t>
+  </si>
+  <si>
+    <t>Modelación hidrodinámica, procesamiento de información, información secundaria, hidrología, batimetría, topografía, dinámica atmosférica, variabilidad climática, caudales, niveles, erosión, sedimentación, geomorfología, hidráulica, fenómeno La Niña, ENSO (El Niño Oscilación del Sur), sensores remotos, modelación matemática, análisis multitemporal, estabilidad de diques, red geodésica.</t>
+  </si>
+  <si>
+    <t>PR0023</t>
+  </si>
+  <si>
+    <t>3. Doc informe metales pesados</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/3. Doc informe metales pesados.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe corresponde al análisis de la información disponible en lo relacionado a la contaminación por metales pesados en la región de La Mojana,  en el marco del proyecto "plan de acción de intervención integral para la reducción del riesgo de inundaciones en la región de La Mojana". </t>
+  </si>
+  <si>
+    <t>El objetivo del documento es proporcionar un análisis exhaustivo sobre la contaminación por metales pesados, especialmente mercurio, en la región de La Mojana, y su relación con el riesgo de inundaciones. El documento se basa en una revisión sistemática de la literatura existente, incluyendo estudios científicos, informes técnicos y datos de monitoreo ambiental. Se emplearon métodos de análisis cuantitativo para evaluar las concentraciones de mercurio en sedimentos, agua y organismos, así como comparaciones con límites establecidos por organismos internacionales. En el informe se habla del mercurio en el ambiente, sus procesos de transporte y destino, las emisiones de mercurio generadas por la minería de oro y la realidad de la minería de oro en el país, para luego adentrarse a las aproximaciones a la contaminación por mercurio en La Mojana.  Entre los resultados más relevantes se identificaron niveles elevados de mercurio en sedimentos y organismos acuáticos, lo que sugiere un riesgo significativo de bioacumulación y biomagnificación en la cadena trófica. Las actividades mineras en la región del Bajo Cauca son la principal fuente de carga de mercurio, que se transporta a La Mojana, exacerbando la contaminación en ecosistemas acuáticos. La exposición de las comunidades locales a mercurio se produce a través del consumo de agua contaminada y alimentos, especialmente pescado y productos agrícolas, lo que representa un riesgo para la salud pública. Se revisaron estudios desde la década de 1990 que evidencian problemas de contaminación por mercurio, confirmando la persistencia del problema a lo largo del tiempo. Finalmente se concluye que a población de La Mojana está expuesta a niveles peligrosos de mercurio, lo que puede causar efectos adversos en la salud, incluyendo trastornos neurológicos y otros problemas de salud, por lo que es imperativo implementar un plan de acción integral para mitigar la contaminación por metales pesados, que incluya regulaciones más estrictas sobre las actividades mineras y programas de monitoreo ambiental.</t>
+  </si>
+  <si>
+    <t>El documento proporciona un análisis integral de la contaminación por metales pesados en La Mojana, destacando la necesidad urgente de intervenciones para proteger la salud pública y el medio ambiente en esta región vulnerable.  adicionalmente, el informe puede proporcionar una base para la toma de decisiones en el ámbito ambiental y de salud pública.</t>
+  </si>
+  <si>
+    <t>Mercurio, metales pesados, bioacumulación, minería, monitoreo ambiental, riesgos sanitarios, contaminación, salud pública, La Mojana, biomagnificación, calidad del agua, minería artesanal, lixiviados, vertimientos.</t>
+  </si>
+  <si>
+    <t>PR0024</t>
+  </si>
+  <si>
+    <t>8. Doc recomendaciones relacionadas con intrumentos de gestios amb</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/8. Doc recomendaciones relacionadas con intrumentos de gestios amb.pdf</t>
+  </si>
+  <si>
+    <t>El informe corresponde a un análisis integral sobre la reducción del riesgo de inundaciones en el núcleo de once municipios de la región de La Mojana y su relación con instrumentos de gestión ambiental, puntualmente respecto a aspectos a tener en cuenta en la formulación o revisión de instrumentos de planificación, como es el caso del Plan de Ordenación y Manejo de Cuencas Hidrográficas (POMCA) y el proyecto de acotamiento de las rondas hídricas de los cuerpos de agua de acuerdo a lo establecido en el artículo 206 de la Ley 1450 de 2011 que desarrolla el Ministerio de Ambiente y Desarrollo Sostenible, con jurisdicción en el núcleo de once municipios de la región de La Mojana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo del documento es formular un plan de acción que contenga recomendaciones relacionadas con la intervención integral para la reducción del riesgo de inundaciones en el núcleo de once municipios de la región de La Mojana, Colombia. Este plan busca promover la sostenibilidad ambiental y el bienestar de las comunidades locales, considerando aspectos técnicos y normativos en la formulación o revisión de instrumentos de planificación, como el Plan de Ordenación y Manejo de Cuencas Hidrográficas (POMCA).  Respecto a la formulación de POMCAS y delimitación de rondas hídricas el documento desarrolla un análisis de sus alcances, metodologías, requerimientos e insumos técnicos y las posibles implicaciones con los alcances del plan de acción, en términos de la articulación entre dichas herramientas de planificación y ordenamiento con los lineamientos y alcances del citado plan. Adicionalmente, se desarrolla un análisis de los requerimientos metodológicos y técnicos necesarios para la formulación de POMCA y el acotamiento de la ronda hídrica y a partir de los insumos técnicos y de diversa índole producidos en el marco de la formulación del plan de acción se determina cuáles de dichos insumos podrían tomarse como base o referencia técnica en la formulación y acotamiento de estas.
+Se realizó un diagnóstico detallado de las potencialidades y limitaciones de la región, identificando grandes proyectos de infraestructura que impactarán tanto positiva como negativamente en el desarrollo local. Entre las temáticas principales se caracterizaron las amenazas históricas y eventos de origen natural, así como la zonificación de áreas susceptibles a inundaciones, movimientos en masa y otros fenómenos amenazantes. Se evaluaron medidas de mitigación y se propusieron estrategias para la gestión del riesgo.  Se realizó un estudio detallado de la hidrología local, incluyendo la caracterización de cuencas, zonas de recarga y humedales. Se utilizan mapas hidrogeológicos para ilustrar la oferta y demanda hídrica, así como para estimar caudales máximos. Adicionalmente, se desarrolló un mapa de zonificación climática e índices de aridez, proporcionando información crucial para la planificación territorial y la gestión de recursos naturales. Se identificaron problemas de pobreza y desigualdad en la región, así como la situación de seguridad alimentaria, lo que resalta la necesidad de intervenciones integrales que aborden estos desafíos.  A manera de conclusión, el documento proporciona un marco integral para la intervención en la reducción del riesgo de inundaciones en La Mojana, destacando la importancia de la articulación entre diferentes actores y la necesidad de un enfoque multidisciplinario. Las recomendaciones formuladas buscan no solo mitigar el riesgo inmediato, sino también promover un desarrollo sostenible que mejore la calidad de vida de las comunidades afectadas.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Los anexos se encuentran dentro de mismo informe y no como archivos externos.  </t>
-  </si>
-  <si>
-    <t>Caños, conectividad hídrica, inundaciones, sedimentación, ríos, ciénagas, quebradas, arroyos.</t>
-  </si>
-  <si>
-    <t>PR019</t>
-  </si>
-  <si>
-    <t>20160131_INFORME DE CALIBRACION DEL MODELO</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION AMENAZA/20160131_INFORME DE CALIBRACION DEL MODELO.pdf</t>
-  </si>
-  <si>
-    <t>Fondo Adaptación</t>
-  </si>
-  <si>
-    <t>Este informe corresponde al diseño y calibración del modelo hidrológico e hidrodinámico de la región de La Mojana. Consta de 5 capítulos distribuido de la siguiente manera: capítulo 1). Corresponde a la introducción que plantea la importancia de los modelos, su clasificación y el esquema que será utilizado para la región de La Mojana; capítulo 2). Se presenta el modelo conceptual general, como el análisis de sistemas y aproximación integral para la región de La Mojana; capítulo 3). Se presentan los modelos hidrológicos desarrollados para La Mojana en 5 grandes bloques; capítulo 4). Se presenta el modelo hidrodinámico unidimensional; y en el capítulo 5). Se presenta el modelo hidrodinámico 1D-2D para La Mojana.</t>
-  </si>
-  <si>
-    <t>En este informe se establece el uso de un modelo distribuido basado en la física que considera la región de estudio como un sistema que integra el comportamiento natural de los cuerpos de agua con la ocurrencia de rompimientos de estructuras hidráulicas. En este sentido, para el modelo lluvia escorrentía se hizo uso de la versión del modelo de sacramento incorporado en el software Sobek, que básicamente representa los procesos lluvia escorrentía mediante el uso de tanques y ecuaciones que representan los flujos entre estos. Es modelo se subdividió en 5 grandes bloques: Cauca Hidroituango, Mojana, río Caribona, río Alto San Jorge y Bajo Nechí, los cuales se calibraron con la información de las estaciones meteorológicas del IDEAM existentes en la zona. Es importante señal que, en el proceso de calibración del modelo hidrológico se integra el modelo 1D inmediatamente. Para la calibración del modelo 1D-2D se utilizó la imagen disponible en el período usado para la calibración del modelo hidrológico y 1-D (2009-2010). De igual manera, la calibración se realiza cambiando sistemáticamente los valores de los coeficientes de rugosidad de Manning hasta que las manchas de inundación simulada y observada correspondieran.</t>
-  </si>
-  <si>
-    <t>Los anexos de este documento se relacionan en el informe de resultados de la modelación de la amenaza por inundación.</t>
-  </si>
-  <si>
-    <t>Calibración, modelo 1D, modelo 1D-2D, Sobek, lluvia escorrentía, Cauca Hidroituango, Mojana, río Caribona, río Alto San Jorge, Bajo Nechí, modelo hidrodinámico, modelo hidráulico, modelo hidrológico, inundaciones.</t>
-  </si>
-  <si>
-    <t>PR020</t>
-  </si>
-  <si>
-    <t>RESULTADOS AMENAZA</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION AMENAZA/RESULTADOS AMENAZA.pdf</t>
-  </si>
-  <si>
-    <t>Cristian Gilberto Plazas Romero</t>
-  </si>
-  <si>
-    <t>En el presente informe se describe la metodología y resultados obtenidos de la modelación de la amenaza por inundación, los cuales, son insumo básico para el análisis, evaluación y gestión del riesgo. Este informe está compuesto por 6 títulos. Título 1. Corresponde a la introducción general del informe. Título 2. Se presentan los aspectos generales como el contexto e interacción para la modelación hidrodinámica y el modelo 1D-2D. Título 3. Se presentan los resultados del proceso de modelación. Título 4. Se realizan las conclusiones generales de los resultados. Título 5. Corresponde a los anexos. Título 6. Corresponde a las fuentes bibliográficas consultadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este informe, para la configuración de los escenarios de amenaza se generaron series a nivel diario y para un periodo de simulación de un año, teniendo en cuenta 10 clases y 4 combinaciones por clase, con un total de 37 eventos de forcing hidrológico. Para el análisis de la amenaza fueron incluidas las curvas de fragilidad de diques existentes, específicamente entre los sectores de Colorado y Cerro las Brisas (Astilleros). Con base en las clases y combinaciones del forcing hidrológico, las tres topologías asociadas al mecanismo de falla del Overtopping, se realizaron inicialmente 111 simulaciones hidrodinámicas, con paso de tiempo de cálculo de 10 minutos, almacenando datos cada hora y salidas de profundidad de agua, nivel de la lámina de agua y velocidades cada día. Posteriormente, se realizaron 60 simulaciones adicionales (para un total de 171), variando el ancho de la sección de rompedero entre 50 y 200 m, todas las simulaciones anteriores fueron configuradas con ancho de rompedero de 100 m y 2 m de altura. De los 171 escenarios de amenaza simulados, solamente 31 no presentan falla (rompimiento). EL caudal máximo promedio que sale en un rompimiento, se presenta en la zona Z01 con 579 m3/s, siguiéndole la zona Z12 con 405 m3/s. Con base en los resultados obtenidos de los 171 escenarios de amenaza, el EMA generó para cada uno de ellos, mapas de profundidad (manchas de inundación), velocidad y duración de las inundaciones. Como trabajo futuro, es posible explorar e incluir otros mecanismos de falla, igual que diferentes configuraciones geométricas de los rompederos para evaluar sus resultados._x000D_
+    <t>La información contenida en el documento es relevante para la toma de decisiones en la gestión del riesgo de inundaciones en la región de La Mojana. Los hallazgos sobre las vulnerabilidades socioeconómicas y ambientales proporcionan un contexto valioso para la formulación de políticas y estrategias de intervención. Aunque el documento aborda varios aspectos importantes, hay áreas que podrían estar mejor desarrolladas. Por ejemplo, la sección sobre la evaluación de los instrumentos de gestión ambiental existentes podría incluir ejemplos específicos de su aplicación y efectividad en la región. Esto ayudaría a identificar lecciones aprendidas y mejores prácticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riesgo, inundación, gestión ambiental, POMCA, gobernanza, La Mojana, análisis socioeconómico, zonificación, sucre, San Marcos, San Benito Abad, vulnerabilidad, infraestructura, amenazas naturales, recurso hídrico, desarrollo sostenible, políticas públicas, cambio climático, seguridad alimentaria. </t>
+  </si>
+  <si>
+    <t>PR0025</t>
+  </si>
+  <si>
+    <t>INFORME FINAL</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 6/INFORME FINAL.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe constituye el producto 6 del contrato 157 de 2013. Corresponde a la caracterización geomorfológica y fisiográfica de La Mojana a escala 1:100.00 en el marco de la modelación hidrodinámica de la región. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El principal objetivo del informe es proporcionar una caracterización geomorfológica y fisiográfica detallada de La Mojana, que sirva como base para la modelación hidrodinámica. Se busca registrar información sobre las formas del terreno, los materiales que las constituyen y los procesos superficiales que las afectan, con el fin de reconstruir la historia geológica y geomorfológica de la región.  Se analizan específicamente las dinámicas de los ríos Magdalena, Cauca y San Jorge, así como las geoformas asociadas a estos cauces, en un buffer de 3 km a cada lado.
+El informe emplea metodologías de teledetección y análisis espacial, siguiendo las directrices del Institute for Aerial Survey and Earth Sciences (ITC) de Holanda. Se utilizó el software ArcGIS 10.1 para la interpretación digital y el análisis de imágenes, lo que permitió una evaluación precisa de las características geomorfológicas de la región.
+Entre los resultados más relevantes se verificó la consistencia espacial de imágenes de sensores remotos, utilizando cartografía oficial del IGAC a escala 1:100.000. Se aplicaron técnicas de realce espacial y remuestreo para mejorar la calidad de las imágenes, con resoluciones de 5 m para Rapideye y entre 15 y 30 m para Landsat ETM. Se generó un DTM a 30 m, que se considera fundamental para la interpretación geomorfológica. Este modelo proporciona una base sólida para el análisis de la topografía y las dinámicas de la región. Se realizó una interpretación digital en pantalla utilizando el software ArcGIS 10.1, aplicando técnicas de mejora visual que incluyeron realces de contraste y filtros para el mejoramiento de bordes. Estos resultados  se  publicaron en una plataforma web, permitiendo el acceso a mapas de geomorfología y fisiografía a escala 1:100,000, lo que promueve la difusión del conocimiento generado.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">- Carpeta denominada Modelos: 1). MOJ1DRR.lit: Modelo 1D con Hidologia (RR) calibrado (archivo base para configuración modelo 2D); 2). Mojhis.lit: Modelo 2D para los datos históricos 2009-2010; 3). Moj10JUN48.lit: Modelo que contiene los primeros 48 escenarios de amenaza; 4). Moj10JUN111.lit: Modelo que contiene los escenarios 49-111 de amenaza; 5). Moj10JUN171.lit: Modelo que contiene los escenarios 112-171 de amenaza. , - Carpeta denominada Resultados: incluye todos los resultados obtenidos de los escenarios de amenaza._x000D_
-</t>
-  </si>
-  <si>
-    <t>En el documento se relacionan los anexos, sin embargo, estos no se encuentran dentro de las carpetas del proyecto suministradas.</t>
-  </si>
-  <si>
-    <t>Escenarios, modelación, amenaza por inundación, Sobek, La Mojana, rompederos, diques, modelación hidrológica, modelación hidrodinámica, modelación hidráulica.</t>
-  </si>
-  <si>
-    <t>PR021</t>
-  </si>
-  <si>
-    <t>PRODUCTO 7-SIMULACION ALTERNATIVAS</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/MODELACION ALTERNATIVAS/PRODUCTO 7-SIMULACION ALTERNATIVAS.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristian Gilberto Plazas Romero      </t>
-  </si>
-  <si>
-    <t>El presente informe tiene como objetivo describir de forma general, la metodología desarrollada para la configuración y construcción de las topologías a incluir en la herramienta computacional, previamente construida por el EMA (modelo hidrodinámico 1D/2D), para simular las alternativas de intervención que servirán como insumo para el desarrollo del Plan de Acción de la Mojana. El informe está compuesto por 6 capítulos de la siguiente manera: capítulo 1). Corresponde a la introducción; capítulo 2). Aspectos preliminares; capítulo 3). Modelación de alternativas de intervención UNAL-DNP; capítulo 4). Conclusiones; capítulo 5). Anexo digital; y capítulo 6). Referencias bibliográficas.</t>
-  </si>
-  <si>
-    <t>En este informe se plantearon 4 alternativas: 1). Alternativa 2-1 (2) que consiste en el realce del dique existente (Marginal), entre los sectores de Colorado y el Cerro Las Brisas; 2). Alternativa 2-2 (3) que consiste en el realce del dique existente (Marginal), entre los sectores de Colorado y Pinillos (específicamente, hasta el corregimiento de Coyongal); 3). Alternativa 3-2L (4) que consiste en la inclusión de cuatro estructuras de derivación en el dique existente; y 4). Alternativa 3-3L (5) que consiste en la inclusión de 3 estructuras de derivación en el dique existente, las cuales permiten almacenar y amortiguar los caudales de exceso en tres áreas preestablecidas y que se encuentran delimitadas por el dique paralelo nuevo propuesto (de forma modular), una vez las zonas de amortiguamiento y almacenamiento son excedidas en su capacidad, serán activadas otras tres estructuras de derivación que ya permitirán el ingreso de agua al interior de la Mojana. Para la configuración de las 4 alternativas de intervención, se utilizaron las clases y combinaciones del forcing hidrológico (37), definidas en el análisis de la amenaza, y se generaron las topologías asociadas a cada alternativa, realizando 148 simulaciones hidrodinámicas, con paso de tiempo de cálculo de 10 minutos, almacenando datos cada hora y salidas de profundidad de agua, nivel de la lámina de agua y velocidades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Carpeta denominada Modelos: 1). Sub carpeta ALT 2-1; 2). Sub carpeta ALT 2-2; 3). Sub carpeta ALT 3-2L; 4). Sub carpeta ALT 3-3L., - Carpeta denominada Resultados, donde se incluyen todos los resultados obtenidos de las alternativas de intervención evaluadas. _x000D_
-</t>
-  </si>
-  <si>
-    <t>Escenarios, modelación, amenaza por inundación, Sobek, La Mojana, rompederos, diques, modelación hidrológica, modelación hidrodinámica, modelación hidráulica, alternativas.</t>
-  </si>
-  <si>
-    <t>PR022</t>
-  </si>
-  <si>
-    <t>INFORME_1</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/INFORME INFORMACION EXISTENTE/INFORME_1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento tiene como objetivo evaluar los modelos hidrológicos, hidráulicos, hidrogeológicos e hidrodinámicos existentes en la zona de La Mojana incluyendo la revisión e identificación de variables, datos y procedimientos del modelo desarrollado por la Universidad Nacional de Colombia en el marco del convenio UN- DNP 336 de 2011, así como la revisión de los resultados de la simulación desarrollado por la Universidad del Norte en el marco del convenio 1069-2011 con INVIAS, y los resultados de otros estudios en la zona de estudio en su área de influencia, la revisión y análisis de la información secundaria para establecer dinámicas del sistema de drenaje Cauca – San Jorge, se ha preparado y procesado la información para generar y construir mapas temáticos y se ha validado la información de los datos hidro-meteorológicos y preparado mapas de inundación basados en imágenes históricas procesadas. </t>
-  </si>
-  <si>
-    <t>Como resultado de los objetivos propuestos del documento realiza un análisis de la información disponible a la fecha de edición del mismo y cubre los aspectos más relevantes para dar inicio a la construcción del Modelo Conceptual para la Modelación Hidrodinámica de la Zona de La Mojana.  El documento se encuentra dividido en 13 capítulos. El contenido de cada capítulo se describe brevemente a continuación; en el capítulo uno se hace una breve introducción y presentación del informe, el capítulo 2 contiene la localización y descripción general de la zona de estudio, el capítulo tres identifica las fuentes de información espacializada de la región, el capítulo cuatro describe los aspectos topográficos y batimétricos, el capítulo cinco presenta un análisis del clima de la zona de estudio, en el capítulo seis se presenta la información hidrológica, en el capítulo siete se describe las características hidráulicas de la región, en el capítulo ocho se analizan los procesos de erosión y sedimentación de la región, el capítulo nueve muestra el análisis de los procesos geomorfológicos, el capítulo diez hace una breve descripción de las intervenciones realizadas en la región, el capítulo once presenta los comentarios finales y el trabajo futuro, finalmente en el capítulo doce se encuentran las referencias y en el trece los anexos.</t>
-  </si>
-  <si>
-    <t>ANEXO MAGNÉTICO 1 REPORTES ESTADÍSTICAS SERIES CLIMATOLÓGICAS_x000D_
-ANEXO MAGNÉTICO 2 REPORTES ESTADÍSTICAS SERIES HIDROLÓGICAS RESOLUCIÓN MENSUAL_x000D_
-ANEXO MAGNÉTICO 3 REPORTES ESTADÍSTICAS SERIES HIDROLÓGICAS RESOLUCIÓN DIARIA_x000D_
-ANEXO MAGNÉTICO 4 GRAFICAS DE CAUDAL SÓLIDO (QS – KTON/DÍA) Y LÍQUIDO (QL– M3/S) MEDIOS DIARIOS MULTIANUALES. IDEAM</t>
-  </si>
-  <si>
-    <t>Los anexos citados en el documento son magnéticos</t>
-  </si>
-  <si>
-    <t>Modelación hidrodinámica, Procesamiento de información, Información secundaria, Hidrología, Batimetría, Topografía, Dinámica atmosférica, Variabilidad climática, Caudales, Niveles, Erosión, Sedimentación, Geomorfología, Hidráulica, Fenómeno La Niña, ENSO (El Niño Oscilación del Sur), Sensores remotos, Modelación matemática, Análisis multitemporal, Estabilidad de diques, Red geodésica.</t>
-  </si>
-  <si>
-    <t>PR023</t>
-  </si>
-  <si>
-    <t>3. Doc informe metales pesados</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/3. Doc informe metales pesados.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe corresponde al análisis de la información disponible en lo relacionado a la contaminación por metales pesados en la región de La Mojana,  en el marco del proyecto "plan de acción de intervención integral para la reducción del riesgo de inundaciones en la región de La Mojana" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo del documento es proporcionar un análisis exhaustivo sobre la contaminación por metales pesados, especialmente mercurio, en la región de La Mojana, y su relación con el riesgo de inundaciones. El documento se basa en una revisión sistemática de la literatura existente, incluyendo estudios científicos, informes técnicos y datos de monitoreo ambiental. Se emplearon métodos de análisis cuantitativo para evaluar las concentraciones de mercurio en sedimentos, agua y organismos, así como comparaciones con límites establecidos por organismos internacionales._x000D_
- En el informe se habla del mercurio en el ambiente, sus procesos de transporte y destino, las emisiones de mercurio generadas por la minería de oro y la realidad de la minería de oro en el país, para luego adentrarse a las aproximaciones a la contaminación por mercurio en La Mojana.  Entre los resultados más relevantes se identificaron niveles elevados de mercurio en sedimentos y organismos acuáticos, lo que sugiere un riesgo significativo de bioacumulación y biomagnificación en la cadena trófica.  Las actividades mineras en la región del Bajo Cauca son la principal fuente de carga de mercurio, que se transporta a La Mojana, exacerbando la contaminación en ecosistemas acuáticos. La exposición de las comunidades locales a mercurio se produce a través del consumo de agua contaminada y alimentos, especialmente pescado y productos agrícolas, lo que representa un riesgo para la salud pública. Se revisaron estudios desde la década de 1990 que evidencian problemas de contaminación por mercurio, confirmando la persistencia del problema a lo largo del tiempo. Finalmente se concluye que a población de La Mojana está expuesta a niveles peligrosos de mercurio, lo que puede causar efectos adversos en la salud, incluyendo trastornos neurológicos y otros problemas de salud, por lo que es imperativo implementar un plan de acción integral para mitigar la contaminación por metales pesados, que incluya regulaciones más estrictas sobre las actividades mineras y programas de monitoreo ambiental._x000D_
-_x000D_
-</t>
-  </si>
-  <si>
-    <t>El documento proporciona un análisis integral de la contaminación por metales pesados en La Mojana, destacando la necesidad urgente de intervenciones para proteger la salud pública y el medio ambiente en esta región vulnerable.  adicionalmente, el informe puede proporcionar una base para la toma de decisiones en el ámbito ambiental y de salud pública.</t>
-  </si>
-  <si>
-    <t>Mercurio, Metales pesados, Bioacumulación, Minería, Monitoreo ambiental, Riesgos sanitarios, Contaminación, Salud pública, La Mojana, Biomagnificación, Calidad del agua, Minería artesanal, Lixiviados, Vertimientos.</t>
-  </si>
-  <si>
-    <t>PR024</t>
-  </si>
-  <si>
-    <t>8. Doc recomendaciones relacionadas con intrumentos de gestios amb</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/AMBIENTAL/8. Doc recomendaciones relacionadas con intrumentos de gestios amb.pdf</t>
-  </si>
-  <si>
-    <t>El informe corresponde a un análisis integral sobre la reducción del riesgo de inundaciones en el núcleo de once municipios de la región de La Mojana y su relación con instrumentos de gestión ambiental, puntualmente respecto a aspectos a tener en cuenta en la formulación o revisión de instrumentos de planificación, como es el caso del Plan de Ordenación y Manejo de Cuencas Hidrográficas (POMCA) y el proyecto de acotamiento de las rondas hídricas de los cuerpos de agua de acuerdo a lo establecido en el artículo 206 de la Ley 1450 de 2011 que desarrolla el Ministerio de Ambiente y Desarrollo Sostenible, con jurisdicción en el núcleo de once municipios de la región de La Mojana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo del documento es formular un plan de acción que contenga recomendaciones relacionadas con la intervención integral para la reducción del riesgo de inundaciones en el núcleo de once municipios de la región de La Mojana, Colombia. Este plan busca promover la sostenibilidad ambiental y el bienestar de las comunidades locales, considerando aspectos técnicos y normativos en la formulación o revisión de instrumentos de planificación, como el Plan de Ordenación y Manejo de Cuencas Hidrográficas (POMCA).  Respecto a la formulación de POMCAS y delimitación de rondas hídricas el documento desarrolla un análisis de sus alcances, metodologías, requerimientos e insumos técnicos y las posibles implicaciones con los alcances del plan de acción, en términos de la articulación entre dichas herramientas de planificación y ordenamiento con los lineamientos y alcances del citado plan. Adicionalmente, se desarrolla un análisis de los requerimientos metodológicos y técnicos necesarios para la formulación de POMCA y el acotamiento de la ronda hídrica y a partir de los insumos técnicos y de diversa índole producidos en el marco de la formulación del plan de acción se determina cuáles de dichos insumos podrían tomarse como base o referencia técnica en la formulación y acotamiento de estas._x000D_
-Se realizó un diagnóstico detallado de las potencialidades y limitaciones de la región, identificando grandes proyectos de infraestructura que impactarán tanto positiva como negativamente en el desarrollo local.  Entre las temáticas principales se caracterizaron las amenazas históricas y eventos de origen natural, así como la zonificación de áreas susceptibles a inundaciones, movimientos en masa y otros fenómenos amenazantes. Se evaluaron medidas de mitigación y se propusieron estrategias para la gestión del riesgo.  Se realizó un estudio detallado de la hidrología local, incluyendo la caracterización de cuencas, zonas de recarga y humedales. Se utilizan mapas hidrogeológicos para ilustrar la oferta y demanda hídrica, así como para estimar caudales máximos. Adicionalmente, se desarrolló un mapa de zonificación climática e índices de aridez, proporcionando información crucial para la planificación territorial y la gestión de recursos naturales . Se identificaron problemas de pobreza y desigualdad en la región, así como la situación de seguridad alimentaria, lo que resalta la necesidad de intervenciones integrales que aborden estos desafíos.  A manera de conclusión, el documento proporciona un marco integral para la intervención en la reducción del riesgo de inundaciones en La Mojana, destacando la importancia de la articulación entre diferentes actores y la necesidad de un enfoque multidisciplinario. Las recomendaciones formuladas buscan no solo mitigar el riesgo inmediato, sino también promover un desarrollo sostenible que mejore la calidad de vida de las comunidades afectadas._x000D_
-</t>
-  </si>
-  <si>
-    <t>La información contenida en el documento es relevante para la toma de decisiones en la gestión del riesgo de inundaciones en la región de La Mojana. Los hallazgos sobre las vulnerabilidades socioeconómicas y ambientales proporcionan un contexto valioso para la formulación de políticas y estrategias de intervención. Aunque el documento aborda varios aspectos importantes, hay áreas que podrían estar mejor desarrolladas. Por ejemplo, la sección sobre la evaluación de los instrumentos de gestión ambiental existentes podría incluir ejemplos específicos de su aplicación y efectividad en la región. Esto ayudaría a identificar lecciones aprendidas y mejores prácticas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riesgo, Inundación, Gestión ambiental, POMCA, Gobernanza, La Mojana, Análisis socioeconómico, Zonificación, Sucre, San Marcos, San Benito Abad, Vulnerabilidad, Infraestructura, Amenazas naturales, Recurso hídrico, Desarrollo sostenible, Políticas públicas, Cambio climático, Seguridad alimentaria. </t>
-  </si>
-  <si>
-    <t>PR025</t>
-  </si>
-  <si>
-    <t>INFORME FINAL</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 6/INFORME FINAL.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El principal objetivo del informe es proporcionar una caracterización geomorfológica y fisiográfica detallada de La Mojana, que sirva como base para la modelación hidrodinámica. Se busca registrar información sobre las formas del terreno, los materiales que las constituyen y los procesos superficiales que las afectan, con el fin de reconstruir la historia geológica y geomorfológica de la región.  Se analizan específicamente las dinámicas de los ríos Magdalena, Cauca y San Jorge, así como las geoformas asociadas a estos cauces, en un buffer de 3 km a cada lado._x000D_
-El informe emplea metodologías de teledetección y análisis espacial, siguiendo las directrices del Institute for Aerial Survey and Earth Sciences (ITC) de Holanda. Se utilizó el software ArcGIS 10.1 para la interpretación digital y el análisis de imágenes, lo que permitió una evaluación precisa de las características geomorfológicas de la región._x000D_
-Entre los resultados más relevantes se verificó la consistencia espacial de imágenes de sensores remotos, utilizando cartografía oficial del IGAC a escala 1:100.000. Se aplicaron técnicas de realce espacial y remuestreo para mejorar la calidad de las imágenes, con resoluciones de 5 m para Rapideye y entre 15 y 30 m para Landsat ETM. Se generó un DTM a 30 m, que se considera fundamental para la interpretación geomorfológica. Este modelo proporciona una base sólida para el análisis de la topografía y las dinámicas de la región. Se realizó una interpretación digital en pantalla utilizando el software ArcGIS 10.1, aplicando técnicas de mejora visual que incluyeron realces de contraste y filtros para el mejoramiento de bordes. Estos resultados  se  publicaron en una plataforma web, permitiendo el acceso a mapas de geomorfología y fisiografía a escala 1:100,000, lo que promueve la difusión del conocimiento generado._x000D_
-</t>
-  </si>
-  <si>
-    <t>Producto 1. Cronograma de trabajo_x000D_
-Producto 2. Informe mensuales_x000D_
-Producto 3. Informe de Procesamiento de la información secundaria e Informe de Geomorfología_x000D_
-Producto 4. Análisis Multitemporal. Dinámica de orillas y geoformas_x000D_
-Producto 5. Estudio de Fisiografía-Suelos-Erosión._x000D_
-Producto 6. Informe Final.</t>
-  </si>
-  <si>
-    <t>PR026</t>
+    <t>El documento es un recurso valioso que aporta información crítica para la comprensión de la geomorfología y fisiografía de La Mojana. Sin embargo, hay oportunidades para mejorar su profundidad, aplicabilidad y accesibilidad, lo que podría aumentar su utilidad en la toma de decisiones y en la gestión de recursos en la región.  Por otra parte, el documento relaciona algunos anexos digitales, varios de ellos no se encuentran dentro de la información suministrada. Algunos de los anexos son productos con sus propios informes.</t>
+  </si>
+  <si>
+    <t>Modelación hidrodinámica, geomorfología, fisiografía, teledetección, DTM, análisis geomorfológico, cartografía, recurso hídrico, planificación territorial, dinámica fluvial, sensores remotos, erosión.</t>
+  </si>
+  <si>
+    <t>PR0026</t>
   </si>
   <si>
     <t>Producto3_ INFORME 1 PROCESAMIENTO DE INFORMACION SECUNDARIA</t>
@@ -687,16 +649,19 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 3/Producto3_ INFORME 1 PROCESAMIENTO DE INFORMACION SECUNDARIA.pdf</t>
   </si>
   <si>
-    <t>El documento tiene un apartado de Anexos, sin embargo solo esta el título, no se menciona ninguno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento presenta un análisis exhaustivo de la información secundaria disponible sobre la geomorfología y la dinámica hidrológica de La Mojana. Sin embargo, se observa que la falta de cartografía geomorfológica uniforme limita la capacidad de realizar un análisis más profundo y detallado.  Por otra parte, se evidencian errores  tipográficos, y de formato. </t>
-  </si>
-  <si>
-    <t>Cartografía, Morfodinámica, Modelación hidrodinámica, Geomorfología, Información secundaria, DTM, Sensores remotos, Análisis multitemprotal.</t>
-  </si>
-  <si>
-    <t>PR027</t>
+    <t>El documento hace referencia al inventario de información secundaria de los principales estudios realizados de geomorfología y dinámica aluvial para el área de estudio de La Mojana. Se realiza una breve descripción de la metodología utilizada, alcance, principales conclusiones, disponibilidad de la información y su uso como apoyo en el presente estudio. Además incluye la evaluación de datos geológicos, topográficos y de uso del suelo, así como la integración de imágenes de sensores remotos para la interpretación geomorfológica. El informe busca proporcionar una base sólida para la toma de decisiones en la gestión de recursos hídricos y la planificación territorial.</t>
+  </si>
+  <si>
+    <t>El principal objetivo del documento es establecer un marco metodológico para la modelación hidrodinámica de la región de La Mojana, utilizando información secundaria para caracterizar los procesos geomorfológicos y aluviales. Se busca generar un entendimiento integral de la dinámica del terreno y los recursos hídricos, que permita la toma de decisiones informadas en la gestión ambiental y el desarrollo sostenible. El informe utiliza metodologías de análisis multitemporal basadas en imágenes de sensores remotos, complementadas con técnicas de interpretación visual y verificación de campo. Se hace énfasis en la utilización de software especializado para el procesamiento de imágenes y la generación de modelos digitales de terreno (DTM). A manera de conclusión la metodología empleada para la consecución de información secundaria es uniforme, aunque se identificaron inconsistencias en las zonas de empalme de los estudios, que deben ser ajustadas para mejorar la precisión de los datos. La utilización de imágenes de sensores remotos de diferentes resoluciones es fundamental para el análisis multitemporal, lo que permitirá un mejor entendimiento de los cambios en la geomorfología de la región. Finalmente, se recomienda la implementación de un sistema de control de calidad riguroso durante la interpretación y verificación de los datos, así como la necesidad de un seguimiento continuo de los procesos geomorfológicos y hidrológicos. Los principales documentos recopilados son: 1) Proyecto cuenca Magdalena-Cauca, Convenio Colombo-Holandés, Año: 1977. 2) Adaptabilidad de la producción agropecuaria sostenible en los ecosistemas de la región de La Mojana, UUNIANDES, CORPOICA, Año: 1998. 3) Geomorfología y susceptibilidad a la inundación del Valle Fluvial del Magdalena. Sector Barrancabermeja-Bocas de Ceniza, IDEAM - UNAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento presenta un análisis exhaustivo de la información secundaria disponible sobre la geomorfología y la dinámica hidrológica de La Mojana. Sin embargo, se observa que la falta de cartografía geomorfológica uniforme limita la capacidad de realizar un análisis más profundo y detallado.  Por otra parte, se evidencian errores tipográficos, y de formato. </t>
+  </si>
+  <si>
+    <t>Cartografía, morfodinámica, modelación hidrodinámica, geomorfología, información secundaria, DTM, sensores remotos, análisis multitemprotal.</t>
+  </si>
+  <si>
+    <t>PR0027</t>
   </si>
   <si>
     <t>Producto3B.  INFORME 2_CARACTERIZACION GEOMORFOLOGIA Y FISIOGRAFIA</t>
@@ -705,19 +670,24 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 3/Producto3B.  INFORME 2_CARACTERIZACION GEOMORFOLOGIA Y FISIOGRAFIA.pdf</t>
   </si>
   <si>
-    <t>Este estudio se centra en la identificación y caracterización de las geoformas, así como en la evaluación de los procesos geomorfológicos que afectan el relieve y el uso del suelo en esta región. Se estructura en tres capítulos: el primero aborda el marco conceptual de la geomorfología en Colombia, el segundo detalla los resultados de la caracterización geomorfológica, y el tercero se centra en la caracterización fisiográfica. El objetivo del informe es proporcionar una caracterización geomorfológica y fisiográfica sistemática de La Mojana, utilizando herramientas modernas de análisis geoespacial. Esto incluye la identificación de las formas del terreno, los materiales que las constituyen y los procesos que las afectan, con el fin de contribuir a la gestión sostenible del territorio y la planificación del uso del suelo._x000D_
-El informe se basa en la interpretación de datos obtenidos a través de sensores remotos, complementados con información geológica y de suelos del Instituto Geográfico Agustín Codazzi y el Servicio Geológico Colombiano. Se emplean herramientas de SIG para la visualización y análisis de datos, lo que permite una integración efectiva de múltiples capas de información geoespacial. Entre los resultados más relevantes se identificaron y clasificaron diversas geoformas en la región, analizando su morfología y morfogénesis, lo que permite entender su dinámica y evolución. Se documentaron los procesos de erosión y sedimentación, destacando la relación entre el material litológico y las condiciones climáticas, así como su impacto en la morfodinámica de la región. Se propuso una metodología estandarizada para la cartografía geomorfológica, que es aplicable a diferentes niveles de detalle y facilita la extrapolación de unidades definidas. FInalmente, El informe concluye que la caracterización geomorfológica y fisiográfica de La Mojana es fundamental para la gestión del territorio y la planificación del uso del suelo. Se destaca la necesidad de integrar estos estudios en un enfoque multidisciplinario que contemple aspectos ambientales, sociales y económicos. Además, se recomienda la implementación de un sistema de información geográfica (SIG) para facilitar el análisis y la visualización de los datos geomorfológicos.</t>
-  </si>
-  <si>
-    <t>Anexo 1: Shape correspondiente al Mapa de Geomorfología (Digital)_x000D_
-Anexo 2: Shape correspondiente al Mapa de Fisiografía (Digital)_x000D_
-Anexo 3: Excel de las leyendas correspondientes a los mapas de Geomorfología y Fisiografía</t>
-  </si>
-  <si>
-    <t>El documento está bien estructurado, lo que facilita la navegación y comprensión de los temas tratados. Las tablas y anexos proporcionan información adicional que complementa el texto principal. Se describe de manera efectiva la metodología utilizada, incluyendo el uso de Sistemas de Información Geográfica (SIG) y la interpretación de imágenes de sensores remotos. Esto permite replicar el estudio en otras áreas y proporciona una base sólida para futuras investigaciones.</t>
-  </si>
-  <si>
-    <t>PR028</t>
+    <t>El informe constituye la caracterización del medio físico correspondiente al componente de geomorfología y fisiografía en el cual se presentan tres aspectos fundamentales para tener un conocimiento de la distribución y dinámica de las geoformas como son: morfogénesis, morfografía y morfocronología como parte del alcance y los productos del contrato 157 de 2013, para la modelación hidrodinámica de La Mojana. Adicionalmente su objetivo es proporcionar una comprensión detallada de las formas del terreno, los materiales que las constituyen y los procesos que las afectan, con el fin de reconstruir la historia geomorfológica de la localidad y facilitar la toma de decisiones en la gestión del territorio.</t>
+  </si>
+  <si>
+    <t>Este estudio se centra en la identificación y caracterización de las geoformas, así como en la evaluación de los procesos geomorfológicos que afectan el relieve y el uso del suelo en esta región. Se estructura en tres capítulos: el primero aborda el marco conceptual de la geomorfología en Colombia, el segundo detalla los resultados de la caracterización geomorfológica, y el tercero se centra en la caracterización fisiográfica. El objetivo del informe es proporcionar una caracterización geomorfológica y fisiográfica sistemática de La Mojana, utilizando herramientas modernas de análisis geoespacial. Esto incluye la identificación de las formas del terreno, los materiales que las constituyen y los procesos que las afectan, con el fin de contribuir a la gestión sostenible del territorio y la planificación del uso del suelo.
+El informe se basa en la interpretación de datos obtenidos a través de sensores remotos, complementados con información geológica y de suelos del Instituto Geográfico Agustín Codazzi y el Servicio Geológico Colombiano. Se emplean herramientas de SIG para la visualización y análisis de datos, lo que permite una integración efectiva de múltiples capas de información geoespacial. Entre los resultados más relevantes se identificaron y clasificaron diversas geoformas en la región, analizando su morfología y morfogénesis, lo que permite entender su dinámica y evolución. Se documentaron los procesos de erosión y sedimentación, destacando la relación entre el material litológico y las condiciones climáticas, así como su impacto en la morfodinámica de la región. Se propuso una metodología estandarizada para la cartografía geomorfológica, que es aplicable a diferentes niveles de detalle y facilita la extrapolación de unidades definidas. Finalmente, el informe concluye que la caracterización geomorfológica y fisiográfica de La Mojana es fundamental para la gestión del territorio y la planificación del uso del suelo. Se destaca la necesidad de integrar estos estudios en un enfoque multidisciplinario que contemple aspectos ambientales, sociales y económicos. Además, se recomienda la implementación de un sistema de información geográfica (SIG) para facilitar el análisis y la visualización de los datos geomorfológicos.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 3/Mapa Fisiografia
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 3/Mapa Geomorfologia</t>
+  </si>
+  <si>
+    <t>El documento está bien estructurado, lo que facilita la navegación y comprensión de los temas tratados. Las tablas y anexos proporcionan información adicional que complementa el texto principal. Se describe de manera efectiva la metodología utilizada, incluyendo el uso de Sistemas de Información geográfica (SIG) y la interpretación de imágenes de sensores remotos. Esto permite replicar el estudio en otras áreas y proporciona una base sólida para futuras investigaciones.</t>
+  </si>
+  <si>
+    <t>Geomorfología, fisiografía, geoformas, análisis espacial, teledetección, cartografía geomorfológica, dinámica aluvial, morfodinámica.</t>
+  </si>
+  <si>
+    <t>PR0028</t>
   </si>
   <si>
     <t>NFORME_3_Producto 4.ANALISIS MULTITEMPORAL</t>
@@ -726,21 +696,22 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 4/INFORME_3_Producto 4.ANALISIS MULTITEMPORAL.pdf</t>
   </si>
   <si>
-    <t>Este informe relaciona los resultados del Análisis del Cambio Multitemporal de la Dinámica Aluvial y Geoformas en la región de la Mojana a escala 1:100.000 para un periodo total de 27 años correspondiente a los años de 1985, 2001 y 2012.  Se enmarca dentro del contrato 157 de 2013, cuyo objetivo es realizar un análisis cartográfico de las geoformas de los cuerpos de agua y sus márgenes, así como evaluar el comportamiento multitemporal de las orillas y la zonificación de la movilidad y estabilidad del cauce de las corrientes de agua.</t>
-  </si>
-  <si>
-    <t>Anexo 1: Shape correspondiente al Mapa de Geomorfología (Digital)._x000D_
-Anexo 2: Shape correspondiente al Mapa de Fisiografía (Digital)._x000D_
-Anexo 3: Excel de las leyendas correspondientes a los mapas de Geomorfología y Fisiografía</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El informe es altamente relevante para la toma de decisiones en la gestión de recursos hídricos en la región de la Mojana. Proporciona información crítica que puede ser utilizada por autoridades locales y regionales para desarrollar políticas de conservación y manejo sostenible de los ecosistemas acuáticos. Por otra parte se observan algunas secciones que podrían estar mejor desarrolladas. Por ejemplo, la sección de "Características Geomorfológicas del Área de Estudio" menciona un informe de caracterización anterior, pero no proporciona un enlace o referencia directa a dicho documento, lo que podría dejar vacíos en la comprensión del contexto.</t>
-  </si>
-  <si>
-    <t>Geoformas, Dinámica aluvial, Modelación hidrodinámica, Fisiografía, Teledetección, Recurso hídrico, Análisis multitemporal, SIG, Landsat, Monitoreo ambiental, Planificación territorial, Río Cauca, Río San Jorge, La Mojana, Ortorectificación, Guaranda, Nechí, Magangue, Morfogenesis, Morfografía, Paisaje.</t>
-  </si>
-  <si>
-    <t>PR029</t>
+    <t>Este informe relaciona los resultados del análisis del cambio multitemporal de la dinámica aluvial y geoformas en la región de La Mojana a escala 1:100.000 para un periodo total de 27 años correspondiente a los años de 1985, 2001 y 2012.  Se enmarca dentro del contrato 157 de 2013, cuyo objetivo es realizar un análisis cartográfico de las geoformas de los cuerpos de agua y sus márgenes, así como evaluar el comportamiento multitemporal de las orillas y la zonificación de la movilidad y estabilidad del cauce de las corrientes de agua.</t>
+  </si>
+  <si>
+    <t>El principal objetivo del documento es proporcionar un análisis detallado de la dinámica aluvial y las geoformas en la región de La Mojana durante un periodo de 27 años, específicamente en los años 1985, 2001 y 2012. Este análisis se realizó utilizando imágenes de satélite Landsat ETM y un enfoque multitemporal. Este análisis busca identificar y caracterizar los cambios en la morfología de los cuerpos de agua y sus márgenes, así como evaluar la influencia de factores naturales y antrópicos en estos procesos. En el informe se presenta una introducción a la geomorfología y fisiografía de la región, destacando las características morfoestructurales que influyen en la dinámica aluvial. Como metodología se utilizaron imágenes de satélite Landsat ETM para realizar un análisis multitemporal. Se detalla el proceso de selección y descarga de imágenes, así como la ortorectificación y adaptación radiométrica para asegurar la precisión en la interpretación de los datos. Se emplearon técnicas de teledetección y Sistemas de Información Geográfica (SIG) para el análisis espacial y la representación cartográfica de los resultados. Luego se presentan los hallazgos sobre la dinámica de las orillas de los ríos Magdalena, Cauca y San Jorge, así como la identificación de geoformas asociadas a la dinámica aluvial. Se discuten los cambios observados en la morfología de los cuerpos de agua y su relación con la actividad humana y los fenómenos climáticos. El estudio concluye que la dinámica aluvial y las geoformas de La Mojana están influenciadas por múltiples factores, incluyendo la variabilidad climática y las intervenciones humanas. Se recomienda la implementación de un sistema de monitoreo continuo para evaluar los cambios en la dinámica hídrica y geomorfológica, así como la necesidad de integrar estos datos en la planificación territorial y la gestión de recursos hídricos.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 4/Producto 4. Anexo Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe es altamente relevante para la toma de decisiones en la gestión de recursos hídricos en la región de La Mojana. Proporciona información crítica que puede ser utilizada por autoridades locales y regionales para desarrollar políticas de conservación y manejo sostenible de los ecosistemas acuáticos. Por otra parte se observan algunas secciones que podrían estar mejor desarrolladas. Por ejemplo, la sección de "Características Geomorfológicas del Área de Estudio" menciona un informe de caracterización anterior, pero no proporciona un enlace o referencia directa a dicho documento, lo que podría dejar vacíos en la comprensión del contexto. De igual manera, se relacionan anexos que no fueron posible localizar en carpetas externas. </t>
+  </si>
+  <si>
+    <t>Geoformas, dinámica aluvial, modelación hidrodinámica, fisiografía, teledetección, recurso hídrico, análisis multitemporal, SIG, Landsat, monitoreo ambiental, planificación territorial, río Cauca, río San Jorge, La Mojana, ortorectificación, Guaranda, Nechí, Magangue, morfogenesis, morfografía, paisaje.</t>
+  </si>
+  <si>
+    <t>PR0029</t>
   </si>
   <si>
     <t>Producto 5. INFORME 4 FISIOGRAFIA_SUELOS_EROSION</t>
@@ -749,57 +720,26 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 5/Producto 5. INFORME 4 FISIOGRAFIA_SUELOS_EROSION.pdf</t>
   </si>
   <si>
-    <t>El documento hace referencia a los resultados de la caracterización de Fisiografía y Suelos en el área de las cuencas aferentes a la región de La Mojana. Este informe es parte de un esfuerzo más amplio para apoyar la modelación hidrodinámica en la región, proporcionando datos esenciales para la gestión de recursos hídricos y la planificación ambiental. Hace parte de los de los productos del contrato 157 de 2013.</t>
-  </si>
-  <si>
-    <t>El objetivo del documento es caracterizar la fisiografía y los suelos de las cuencas aferentes a La Mojana, facilitando la comprensión de la distribución de geoformas y su relación con las características del suelo. Primero se presenta el marco general del estudio, destacando la importancia de la fisiografía en la caracterización de suelos y su relevancia para la modelación hidrodinámica. Luego se describe el enfoque metodológico utilizado, que incluye la interpretación de imágenes de sensores remotos (Landsat, Spot, Rapideye y Radar) y la revisión de estudios previos del Instituto Geográfico Agustín Codazzi. La metodología se basa en la técnica del Institute for Aerial Survey and Earth Sciences (ITC) de Holanda, que permite una caracterización precisa a través de un análisis jerárquico y multicategórico. Los resultados se publicaron en una aplicación web de ArcGIS, facilitando el acceso a mapas de fisiografía y suelos, contribuyendo a la divulgación y uso de la información. entre los resultados más relevantes se determinó que el 56.8% de las geoformas en la región son de origen fluviogravitacional, predominando materiales ígneos como andesitas, diabasas, dioritas, tobas y basaltos, así como esquistos de origen metamórfico. Esto resalta la diversidad geológica de la zona y su influencia en la dinámica del suelo. Adicionalmente, se dentificaron y caracterizaron los perfiles de suelo, lo que permitió establecer atributos clave como textura, densidad real y aparente. Estos datos son fundamentales para el modelado hidrológico y la gestión de recursos hídricos. Finalmente, se establecieron conexiones significativas entre las características fisiográficas y la dinámica hídrica de la región, lo que es crucial para la planificación y gestión sostenible de los recursos hídricos.</t>
-  </si>
-  <si>
-    <t>Anexo 1: Shape correspondiente al Mapa de Fisiografía-Suelos (Digital)._x000D_
-Anexo 2: Excel de Leyenda Fisiografía-Suelos</t>
+    <t>El documento hace referencia a los resultados de la caracterización de la fisiografía y suelos en el área de las cuencas aferentes a la región de La Mojana. Este informe es parte de un esfuerzo más amplio para apoyar la modelación hidrodinámica en la región, proporcionando datos esenciales para la gestión de recursos hídricos y la planificación ambiental. Hace parte de los de los productos del contrato 157 de 2013.</t>
+  </si>
+  <si>
+    <t>El objetivo del documento es caracterizar la fisiografía y los suelos de las cuencas aferentes a La Mojana, facilitando la comprensión de la distribución de geoformas y su relación con las características del suelo. Primero se presenta el marco general del estudio, destacando la importancia de la fisiografía en la caracterización de suelos y su relevancia para la modelación hidrodinámica. Luego se describe el enfoque metodológico utilizado, que incluye la interpretación de imágenes de sensores remotos (Landsat, Spot, Rapideye y Radar) y la revisión de estudios previos del Instituto Geográfico Agustín Codazzi. La metodología se basa en la técnica del Institute for Aerial Survey and Earth Sciences (ITC) de Holanda, que permite una caracterización precisa a través de un análisis jerárquico y multicategórico. Los resultados se publicaron en una aplicación web de ArcGIS, facilitando el acceso a mapas de fisiografía y suelos, contribuyendo a la divulgación y uso de la información. Entre los resultados más relevantes se determinó que el 56.8% de las geoformas en la región son de origen fluviogravitacional, predominando materiales ígneos como andesitas, diabasas, dioritas, tobas y basaltos, así como esquistos de origen metamórfico. Esto resalta la diversidad geológica de la zona y su influencia en la dinámica del suelo. Adicionalmente, se identificaron y caracterizaron los perfiles de suelo, lo que permitió establecer atributos clave como textura, densidad real y aparente. Estos datos son fundamentales para el modelado hidrológico y la gestión de recursos hídricos. Finalmente, se establecieron conexiones significativas entre las características fisiográficas y la dinámica hídrica de la región, lo que es crucial para la planificación y gestión sostenible de los recursos hídricos.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0008/02_PRODUCTOS/GEOMORFOLOGIA/Producto 5/Anexo producto 5 geomorfologia</t>
   </si>
   <si>
     <t>El documento presenta una metodología bien estructurada, que incluye el uso de imágenes de sensores remotos y la consulta de estudios previos del Instituto Geográfico Agustín Codazzi. Esto proporciona una base sólida para la caracterización de la fisiografía y los suelos, lo que es esencial para la modelación hidrológica. Adicionalmente, la creación de una aplicación web en ArcGIS para acceder a los mapas de fisiografía y suelos es un aspecto positivo, ya que facilita el acceso a la información para investigadores, planificadores y tomadores de decisiones, promoviendo la transparencia y el uso de datos en la gestión ambiental.</t>
   </si>
   <si>
-    <t>Sin observaciones</t>
-  </si>
-  <si>
-    <t>EMA</t>
-  </si>
-  <si>
-    <t>En documento hace referencia al inventario de información secundaria de los principales estudios realizados de geomorfología y dinámica aluvial para el área de estudio de La Mojana. Se realiza una breve descripción de la metodología utilizada, alcance, principales conclusiones, disponibilidad de la información y su uso como apoyo en el presente estudio. Además incluye la evaluación de datos geológicos, topográficos y de uso del suelo, así como la integración de imágenes de sensores remotos para la interpretación geomorfológica. El informe busca proporcionar una base sólida para la toma de decisiones en la gestión de recursos hídricos y la planificación territorial.</t>
-  </si>
-  <si>
-    <t>El principal objetivo del documento es establecer un marco metodológico para la modelación hidrodinámica de la región de La Mojana, utilizando información secundaria para caracterizar los procesos geomorfológicos y aluviales. Se busca generar un entendimiento integral de la dinámica del terreno y los recursos hídricos, que permita la toma de decisiones informadas en la gestión ambiental y el desarrollo sostenible. El informe utiliza metodologías de análisis multitemporal basadas en imágenes de sensores remotos, complementadas con técnicas de interpretación visual y verificación de campo. Se hace énfasis en la utilización de software especializado para el procesamiento de imágenes y la generación de modelos digitales de terreno (DTM). A manera de conclusión la metodología empleada para la consecución de información secundaria es uniforme, aunque se identificaron inconsistencias en las zonas de empalme de los estudios, que deben ser ajustadas para mejorar la precisión de los datos. La utilización de imágenes de sensores remotos de diferentes resoluciones es fundamental para el análisis multitemporal, lo que permitirá un mejor entendimiento de los cambios en la geomorfología de la región. Finalmente, se recomienda la implementación de un sistema de control de calidad riguroso durante la interpretación y verificación de los datos, así como la necesidad de un seguimiento continuo de los procesos geomorfológicos y hidrológicos.Los principales documentos recopilados son: 1) Proyecto cuenca Magdalena-Cauca, CONVENIO COLOMBO-HOLANDÉS, Año: 1977. 2) Adaptabilidad de la producción agropecuaria sostenible en los ecosistemas de la región de la Mojana, UUNIANDES, CORPOICA, Año: 1998. 3) Geomorfología y susceptibilidad a la Inundación del Valle Fluvial del Magdalena. Sector Barrancabermeja-Bocas de Ceniza, IDEAM - UNAL, Año: No especificado en el extracto proporcionado.</t>
-  </si>
-  <si>
-    <t>El informe constituye la caracterización del medio físico correspondiente al componente de Geomorfología y Fisiografía en el cual se presentan tres aspectos fundamentales para tener un conocimiento de la distribución y dinámica de las geoformas como son: morfogénesis, morfografía y morfocronología como parte del alcance y los productos del contrato 157 de 2013, para la modelación hidrodinámica de La Mojana. Adicionalmente su objetivo es proporcionar una comprensión detallada de las formas del terreno, los materiales que las constituyen y los procesos que las afectan, con el fin de reconstruir la historia geomorfológica de la localidad y facilitar la toma de decisiones en la gestión del territorio.</t>
-  </si>
-  <si>
-    <t>Geomorfología, Fisiografía, Geoformas, Análisis espacial, Teledetección, Cartografía Geomorfológica, Dinámica Aluvial, Morfodinámica.</t>
-  </si>
-  <si>
-    <t>El principal objetivo del documento es proporcionar un análisis detallado de la dinámica aluvial y las geoformas en la región de la Mojana durante un periodo de 27 años, específicamente en los años 1985, 2001 y 2012. Este análisis se realizó utilizando imágenes de satelite Landsat ETM y un enfoque multitemporal. Este análisis busca identificar y caracterizar los cambios en la morfología de los cuerpos de agua y sus márgenes, así como evaluar la influencia de factores naturales y antrópicos en estos procesos. En el informe Se presenta una introducción a la geomorfología y fisiografía de la región, destacando las características morfoestructurales que influyen en la dinámica aluvial. Como metodología se utilizaron imágenes de satélite Landsat ETM para realizar un análisis multitemporal. Se detalla el proceso de selección y descarga de imágenes, así como la ortorectificación y adaptación radiométrica para asegurar la precisión en la interpretación de los datos. Se emplearon técnicas de teledetección y Sistemas de Información Geográfica (SIG) para el análisis espacial y la representación cartográfica de los resultados. Luego se presentan los hallazgos sobre la dinámica de las orillas de los ríos Magdalena, Cauca y San Jorge, así como la identificación de geoformas asociadas a la dinámica aluvial. Se discuten los cambios observados en la morfología de los cuerpos de agua y su relación con la actividad humana y los fenómenos climáticos. El estudio concluye que la dinámica aluvial y las geoformas de la Mojana están influenciadas por múltiples factores, incluyendo la variabilidad climática y las intervenciones humanas. Se recomienda la implementación de un sistema de monitoreo continuo para evaluar los cambios en la dinámica hídrica y geomorfológica, así como la necesidad de integrar estos datos en la planificación territorial y la gestión de recursos hídricos.</t>
-  </si>
-  <si>
-    <t>Fisipgrafía, Geoformas, Sensores remotos, Suelo, DTM, Perfiles de suelo, Paisaje, Modelo de sombras, Modelación hidrodinámica, La Mojana, Reinterpretación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe constituye el producto 6 del contrato 157 de 2013. Corresponde a la caracterización geomorfológica y fisiografica de La Mojana a escala 1:100.00 en el marco de la modelación hidrodinámica de la región. </t>
-  </si>
-  <si>
-    <t>El documento es un recurso valioso que aporta información crítica para la comprensión de la geomorfología y fisiografía de La Mojana. Sin embargo, hay oportunidades para mejorar su profundidad, aplicabilidad y accesibilidad, lo que podría aumentar su utilidad en la toma de decisiones y en la gestión de recursos en la región.  Por otra parte, el documento relaciona algunos anexos digitales, varios de ellos no se encuentran dentro de la información suministrada. Algunos de los anexos son productos con sus propios informes.</t>
-  </si>
-  <si>
-    <t>Modelación hidrodinámica, Geomorfología, Fisiografía, Teledetección, DTM, Análisis geomorfológico, Cartografía, Recurso hídrico, Planificación territorial, Dinámica fluvial, Sensores remotos, Erosión.</t>
+    <t>Fisiografía, geoformas, sensores remotos, suelo, DTM, perfiles de suelo, paisaje, modelo de sombras, modelación hidrodinámica, La Mojana, reinterpretación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,18 +837,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -1225,6 +1166,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1241,13 +1189,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1266,12 +1207,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R30" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R30" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="Código de proyecto" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="Código de producto" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="Nombre del producto" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="Directorio" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="Año" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="Autor 1" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="Autor 2" dataDxfId="11"/>
@@ -1556,16 +1497,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:AA30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1577,36 +1518,36 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1633,7 +1574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1664,43 +1605,43 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>2015</v>
@@ -1721,42 +1662,42 @@
         <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>231</v>
+      <c r="Q3" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="2">
         <v>2015</v>
@@ -1777,42 +1718,42 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>231</v>
+      <c r="Q4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>2015</v>
@@ -1832,43 +1773,43 @@
       <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>47</v>
+      <c r="P5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2">
         <v>2015</v>
@@ -1877,10 +1818,10 @@
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1900,20 +1841,20 @@
       <c r="N6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>231</v>
+      <c r="Q6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1956,20 +1897,20 @@
       <c r="N7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2012,20 +1953,20 @@
       <c r="N8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="6" t="s">
         <v>62</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2068,20 +2009,20 @@
       <c r="N9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="6" t="s">
         <v>75</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2124,20 +2065,20 @@
       <c r="N10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2180,20 +2121,20 @@
       <c r="N11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="6" t="s">
         <v>62</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2236,20 +2177,20 @@
       <c r="N12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="6" t="s">
         <v>94</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="6" t="s">
         <v>96</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2292,20 +2233,20 @@
       <c r="N13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>104</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -2348,20 +2289,20 @@
       <c r="N14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>94</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>112</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2404,20 +2345,20 @@
       <c r="N15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="3" t="s">
         <v>119</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2460,31 +2401,31 @@
       <c r="N16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="3" t="s">
         <v>94</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="3" t="s">
         <v>127</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E17" s="2">
         <v>2014</v>
@@ -2505,7 +2446,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>25</v>
@@ -2514,33 +2455,33 @@
         <v>26</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="R17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E18" s="2">
         <v>2014</v>
@@ -2561,7 +2502,7 @@
         <v>23</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>25</v>
@@ -2570,42 +2511,42 @@
         <v>26</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>143</v>
-      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E19" s="2">
         <v>2014</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>23</v>
@@ -2617,7 +2558,7 @@
         <v>23</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>25</v>
@@ -2626,39 +2567,39 @@
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E20" s="2">
         <v>2014</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>23</v>
@@ -2673,7 +2614,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>25</v>
@@ -2682,42 +2623,42 @@
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>159</v>
+      <c r="Q20" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E21" s="2">
         <v>2013</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>23</v>
@@ -2729,7 +2670,7 @@
         <v>23</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>25</v>
@@ -2738,42 +2679,42 @@
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>94</v>
+        <v>161</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>168</v>
+        <v>23</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2">
         <v>2015</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>23</v>
@@ -2785,7 +2726,7 @@
         <v>23</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>25</v>
@@ -2794,33 +2735,33 @@
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>94</v>
+        <v>168</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>168</v>
+        <v>23</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E23" s="2">
         <v>2013</v>
@@ -2841,7 +2782,7 @@
         <v>23</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>25</v>
@@ -2850,33 +2791,33 @@
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>94</v>
+        <v>174</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E24" s="2">
         <v>2015</v>
@@ -2897,7 +2838,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>25</v>
@@ -2906,33 +2847,33 @@
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>191</v>
+      <c r="Q24" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E25" s="2">
         <v>2015</v>
@@ -2953,7 +2894,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>25</v>
@@ -2962,42 +2903,42 @@
         <v>26</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="5" t="s">
-        <v>198</v>
+      <c r="Q25" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E26" s="2">
         <v>2015</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>23</v>
@@ -3009,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>25</v>
@@ -3018,33 +2959,33 @@
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>94</v>
+        <v>195</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>240</v>
+        <v>23</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E27" s="2">
         <v>2013</v>
@@ -3065,7 +3006,7 @@
         <v>23</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>25</v>
@@ -3074,42 +3015,42 @@
         <v>26</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>209</v>
+        <v>23</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E28" s="2">
         <v>2014</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>23</v>
@@ -3121,7 +3062,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>25</v>
@@ -3130,42 +3071,42 @@
         <v>26</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>94</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E29" s="2">
         <v>2014</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>23</v>
@@ -3177,7 +3118,7 @@
         <v>23</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>25</v>
@@ -3186,42 +3127,42 @@
         <v>26</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O29" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>94</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E30" s="2">
         <v>2014</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>23</v>
@@ -3233,7 +3174,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>25</v>
@@ -3242,19 +3183,19 @@
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3267,15 +3208,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -3419,28 +3351,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0008/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0008/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0008/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{A9371CE1-9A49-4B74-BB5B-5B7D1355AFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18FD1562-CE4F-4C05-A4D3-109ED64D93A2}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{A9371CE1-9A49-4B74-BB5B-5B7D1355AFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB65158C-6BF4-4BBD-9A64-5F032A8961B6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,22 +44,22 @@
     <t>CODIGO DE PRODUCTO</t>
   </si>
   <si>
-    <t>Nombre del producto</t>
+    <t>NOMBRE DEL PRODUCTO</t>
   </si>
   <si>
     <t>DIRECTORIO</t>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
   </si>
   <si>
     <t>AUTOR 4</t>
@@ -68,28 +68,28 @@
     <t>AUTOR 5</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Formato</t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
-    <t>Contiene Anexos</t>
-  </si>
-  <si>
-    <t>Anexos</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>CONTIENE ANEXOS</t>
+  </si>
+  <si>
+    <t>ANEXOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
   </si>
   <si>
     <t>P0008</t>
@@ -739,7 +739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,13 +761,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -837,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -847,6 +861,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1191,7 +1206,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,22 +1257,22 @@
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="Nombre del producto" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
     <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="Año" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="Autor 1" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="Autor 2" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="Autor 3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="Descripción" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="Tipo de producto" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="Formato" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="Resumen" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="Contiene Anexos" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="Anexos" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="Observaciones" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="Palabras Clave" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1498,7 +1544,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1519,58 +1565,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
